--- a/shop_xlsx/신제품보만 BF1126C.xlsx
+++ b/shop_xlsx/신제품보만 BF1126C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,16 +455,15 @@
 사실 몇시간씩 들고 이동할거 아니면 무게감은 상관없을듯요
 선풍기 목 길이를 짧게하면 귀여운데 길게하면 나름 포스 뿜뿜! 목 길게하면 쇼파에앉아 사용할수있을정도로 목이 늘어나요 심지어 머리도 각도조절되니 어느 위치에서든 원하는 위치로 바람이 슝슝~~
 무선에 리모콘까지~ 귀차니즘들에게 딱인제품이예요
-그리고 소음이 심한가 여러번 작동시켜봤는데 소음걱정은 안하셔도 될듯합니다 일반 선풍기 돌아가는 소리정도 납니다
-또한 충전중에도 작동이되서 콘센트가 있는곳이면 코드 꽂아사용하니 활용도 굿 👍
+그리고 일반 선풍기 돌아가는 소리정도 납니다
+또한 충전중에도 작동이되서 콘센트가 있는곳이면 코드 꽂아
 무선치고 힘도좋아 시원하네요
 단계조절이 1단부터 8단까지니 취향껏 단계조절 하시며 쓰시면 좋을듯합니다
 기본 전원누르면 2단계가 세팅되는데 집안에선 2단계도 시원한느낌이예요
 에어컨과함께 사용시 1단계도 충분하네요
-한번충전에(풀 4시간충전) 6시간사용이니 전 만족합니다
+한번충전에(풀 4시간충전) 6시간사용이니 전
 사실 야구장갈때 쓰려고 산거라 야구관람하며 사용하기엔 충분한 시간인듯해서 이번주 금요일 이 아이와함께 야구장 출동합니다ㅋ
-덕분에 시원한 관람될것같네요
-감사히 잘쓰겠습니다</t>
+덕분에 시원한 관람될것같네요</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,9 +478,9 @@
           <t>세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.무선으로 자유롭게 움직이며 사용할 수 있
 세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.
 무선으로 자유롭게 움직이며 사용할 수 있고 피크닉, 캠핑용으로 사용할 수 있는 점이 마음에 듭니다. 집이 공간이 작은 편인데 사용하지 않을 때는 접어서 보관을 할 수 있어 여름이 지난 후에 정리를 할 때도 좋을 것 같아요.
-공간이 작아서 두개를 사용할 필요는 없는데 사용하기 편한 크기와 각도로 설정하여 이동하기도 편하고...충전을 하고 벽걸이 또는 테이블 용으로 사용할 수 있어 너무 잘 활용하고 있어요.
+공간이 작아서 두개를 사용할 필요는 없는데 사용하기 편한 크기와 각도로 설정하여 이동하기도 편하고...충전을 하고 있어요.
 스탠드형이 아닌 접이식이라 내구성도 꼼꼼하게 살펴봤는데 역시 보만의 만듬새는 우수하더군요.
-일반적인 형태의 제품보다 확실하게 편의성이 뛰어나고 활용도가 높다는걸 참고하시면 될 것 같아요.</t>
+일반적인 형태의 제품보다 확실하게 걸 참고하시면 될 것 같아요.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -497,23 +496,7 @@
 일반선풍기 찾아보다가 발견하고 구매했어요.
 작고 소음도 없는 편이라고 해서요.
 음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ
-이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.
-저는 캠핑용이라 아니라 제 방에서 사용할꺼라..
-세기를 1정도하면 초미풍처럼 아주 조용할 줄 알았거든요.
-아무튼 부피는 작아도 겁나 바람이 센데다
-바람세기 정도가 10까지 있어요.
-그리고 회전하니 진짜 몸통까지 다 돌아가네요.
-후기보고 어떤 느낌인가했는데, 이런거군요.ㅎㅎㅎ
-디자인은 참 이쁘고 세련됐어요.
-보관도 컴팩트하게 할 수 있어서 좋기도하구요.
-안방 선풍기와 비교했더니 미니하고 귀엽기도 하구요.
-남동생이 캠핑 자주 다니는데 벌써 탐내하네요.ㅎㅎㅎ
-뭐, 개인적으로 좀 실망하긴했지만,
-작은 선풍기치고는 내구성도 괜찮은 것 같고
-전반적으로 좋은 부분이 많아서 만족하는 구매에요.
-사은품으로 주신 미니선풍기도 감사해요.
-얘도 작은게 바람세기가 겁나 세네요.
-오래오래 잘 사용해볼께요^^</t>
+이건 개인차가 있지만 1로 해도 저에</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -527,7 +510,8 @@
         <is>
           <t>일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8
 일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음
-소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8단까지 안해놔도 됏을것같은?왜냐면1단이 쓰고싶으면 8단까지 갓다가 1단와야하는게 좀 번거로워요 아그리고</t>
+소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8단까지 안해놔도 됏을것같은?왜냐면1단이 쓰고싶으면 8단까지 갓다가 1단와야하는게 좀 번거로워요 아그리고 제꺼 혹시 불량인가요?충전중에 빨간불이 들어오고 완충시 초록불이라고햇는데 따로 색도없어요 근데 배터리칸은 다차잇길래 배터리잇는지알앗더니 얼마쓰다 꺼져버리네요
+배터리가 얼마나 남앗는지도 알수가없어여 배터리칸이 계속 만땅이에요ㅜㅜ 이거 왜이러는지 알수있을까요?상품은 넘 맘에들고 좋아요</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -544,7 +528,7 @@
 보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱 맘에 드는 제품이에요.
 완전히 접혀져서 전용 파우치에 담아두면 쓰지 않을때나 캠핑 갈때 찰떡이구요, 높이 조절에 회전까지 되고..
 리모컨 있고.. 바람 세기 조절까지 쓰기가 너무 편해요!
-무엇보다 무선이라서 이 방 저 방 필요할때마다 가볍게 옮겨다닐 수 있어서 완전 대대대 만족이에요!</t>
+무엇보다 무선이라서 !</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -577,9 +561,8 @@
 폴딩도 간편하고 각도 조절도 안정적이고
 무선 선풍기라 일반 유선 선풍기 보다
 모터가 약할 거라 생각했는데 전혀 약하지 않아서 놀랐어요
-소음도 적고요!
+!
 폴딩 후 파우치에 딱 넣어서 보관하면 되니
-자리차지도 하지 않고 너무 좋아요
 다음주 아이와 캠핑 가기로 약속했는데 슥 들고 가려고요^^
 참! 사은품으로 보내주신 핸디 선풍기도 진짜 대박이었어요</t>
         </is>
@@ -665,8 +648,8 @@
 뭐 물건은 말해 뭐합니까 ㅎㅎㅎ
 유선/무선 겸용으로 사용가능하구
 바람단계 8단계에 그냥 하나같이 완벽 합니당
-다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 후회 하나도 안해요 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다
-근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 더 맘에들어용 &gt;_&lt; 포장도 잘되서 왔고 하자도 없고 리모컨도 있구 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요
+다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다
+근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 _&lt; 포장도 잘되서 왔고 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요
 주변에서 누군가가 캠핑용 서큘레이터 찾는다하면 추천할거가테용 ㅎㅎ 많이파세요!!</t>
         </is>
       </c>
@@ -685,7 +668,7 @@
 집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해요.
 소음이 거의 느껴지지 않을만큼 조용한데 바람은 강력해서 이거 사고 원래 집에있던 유선선풍기는 아예 쓰질 않네요;;
 멀티탭 연결해서 길게 선풍기 선이 나와있는거 정말 보기 싫었는데 마음의 평안을 찾았어요
-무조건 강추에요!</t>
+!</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -701,7 +684,7 @@
 다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다!
 리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!
 크기가 작을까봐 걱정했는데 딱 적당하면서 완전히 접혀서 보관이나 다른 장소로 들고다니기도 좋을거같습니당~
-잘 쓸게요!!</t>
+!!</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -769,8 +752,8 @@
 같은 1인데도 더 세구요.
 충전 다하고 코드 빼고 사용하면 좀 약해요.
 저는 약한게 좋아서 충전 다하고 사용중이에요.
-그런데 오랜만에 왔더니 가격이 저렴해졌네요.
-한달 잘 사용중이지만 아쉽네요.ㅎㅎㅎ
+그런데 .
+한달 잘 사용중이지만 .ㅎㅎㅎ
 아무튼 오래 잘 사용할께요~!</t>
         </is>
       </c>
@@ -812,23 +795,10 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>무선의 최대장점 어디에서든 사용가능해서 구매했어요야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요사이즈는 너무 크지도 작지도않게 적당하고
-무선의 최대장점 어디에서든 사용가능해서 구매했어요
-야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요
-사이즈는 너무 크지도 작지도않게 적당하고 무게감이 살짝있지만 차에 싣고다니면 문제없을정도 입니다
-사실 몇시간씩 들고 이동할거 아니면 무게감은 상관없을듯요
-선풍기 목 길이를 짧게하면 귀여운데 길게하면 나름 포스 뿜뿜! 목 길게하면 쇼파에앉아 사용할수있을정도로 목이 늘어나요 심지어 머리도 각도조절되니 어느 위치에서든 원하는 위치로 바람이 슝슝~~
-무선에 리모콘까지~ 귀차니즘들에게 딱인제품이예요
-그리고 소음이 심한가 여러번 작동시켜봤는데 소음걱정은 안하셔도 될듯합니다 일반 선풍기 돌아가는 소리정도 납니다
-또한 충전중에도 작동이되서 콘센트가 있는곳이면 코드 꽂아사용하니 활용도 굿 👍
-무선치고 힘도좋아 시원하네요
-단계조절이 1단부터 8단까지니 취향껏 단계조절 하시며 쓰시면 좋을듯합니다
-기본 전원누르면 2단계가 세팅되는데 집안에선 2단계도 시원한느낌이예요
-에어컨과함께 사용시 1단계도 충분하네요
-한번충전에(풀 4시간충전) 6시간사용이니 전 만족합니다
-사실 야구장갈때 쓰려고 산거라 야구관람하며 사용하기엔 충분한 시간인듯해서 이번주 금요일 이 아이와함께 야구장 출동합니다ㅋ
-덕분에 시원한 관람될것같네요
-감사히 잘쓰겠습니다</t>
+          <t>받자마자 넘 작아서 놀랬는데 혼자 자취하는 대학새내기 울딸한테 딱이더라고요 무선에 쓰임새 조절도 되고 무엇보다 좁은 원룸에 두세달 쓰고 선풍기보관이 번거로운데 보관이 넘 편해서
+받자마자 넘 작아서 놀랬는데 혼자 자취하는 대학새내기 울딸한테 딱이더라고요
+무선에 쓰임새 조절도 되고 무엇보다 좁은 원룸에 두세달 쓰고 선풍기보관이 번거로운데 보관이 넘 편해서 좋을거같아요
+에어컨과 같이 쓰기 딱 좋은제품입니다</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -840,12 +810,8 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.무선으로 자유롭게 움직이며 사용할 수 있
-세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.
-무선으로 자유롭게 움직이며 사용할 수 있고 피크닉, 캠핑용으로 사용할 수 있는 점이 마음에 듭니다. 집이 공간이 작은 편인데 사용하지 않을 때는 접어서 보관을 할 수 있어 여름이 지난 후에 정리를 할 때도 좋을 것 같아요.
-공간이 작아서 두개를 사용할 필요는 없는데 사용하기 편한 크기와 각도로 설정하여 이동하기도 편하고...충전을 하고 벽걸이 또는 테이블 용으로 사용할 수 있어 너무 잘 활용하고 있어요.
-스탠드형이 아닌 접이식이라 내구성도 꼼꼼하게 살펴봤는데 역시 보만의 만듬새는 우수하더군요.
-일반적인 형태의 제품보다 확실하게 편의성이 뛰어나고 활용도가 높다는걸 참고하시면 될 것 같아요.</t>
+          <t>제가 개인적으로 보만 제품을 좋아하는데 이번 무선 선풍기 대박이네요! 접이식에다 휴대가방까지 있어서 놀러갈 때 들고가기도 좋고 신랑이 더위를 너무 심하게 많이 타서 ㅅ방마다 선풍기
+제가 개인적으로 보만 제품을 좋아하는데 이번 무선 선풍기 대박이네요! 접이식에다 휴대가방까지 있어서 놀러갈 때 들고가기도 좋고 신랑이 더위를 너무 심하게 많이 타서 ㅅ방마다 선풍기 하나씩 있는데 이동하면서 본인 개인 선풍기로 쓰기 너무 편하고 좋대요 ^^ 왠지 모르게 캠핑장 가져가면 지인들이 너도나도 다 사겠다고 할 거 같은 아이템입니다 ㅎㅎ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -857,27 +823,8 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>일반선풍기 찾아보다가 발견하고 구매했어요.작고 소음도 없는 편이라고 해서요.음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.저는
-일반선풍기 찾아보다가 발견하고 구매했어요.
-작고 소음도 없는 편이라고 해서요.
-음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ
-이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.
-저는 캠핑용이라 아니라 제 방에서 사용할꺼라..
-세기를 1정도하면 초미풍처럼 아주 조용할 줄 알았거든요.
-아무튼 부피는 작아도 겁나 바람이 센데다
-바람세기 정도가 10까지 있어요.
-그리고 회전하니 진짜 몸통까지 다 돌아가네요.
-후기보고 어떤 느낌인가했는데, 이런거군요.ㅎㅎㅎ
-디자인은 참 이쁘고 세련됐어요.
-보관도 컴팩트하게 할 수 있어서 좋기도하구요.
-안방 선풍기와 비교했더니 미니하고 귀엽기도 하구요.
-남동생이 캠핑 자주 다니는데 벌써 탐내하네요.ㅎㅎㅎ
-뭐, 개인적으로 좀 실망하긴했지만,
-작은 선풍기치고는 내구성도 괜찮은 것 같고
-전반적으로 좋은 부분이 많아서 만족하는 구매에요.
-사은품으로 주신 미니선풍기도 감사해요.
-얘도 작은게 바람세기가 겁나 세네요.
-오래오래 잘 사용해볼께요^^</t>
+          <t>저도 상세페이지 처럼 걸어봤어요 ㅋㅋ 귀엽게 잘 걸려있고 전용 파우치가 진짜 대박이네요. 캠장 가서 쓸예정인데 너무 든든합니다! 리모컨도 주머니 쏙 넣을수 있고 좋아요. 근데 본체
+저도 상세페이지 처럼 걸어봤어요 ㅋㅋ 귀엽게 잘 걸려있고 전용 파우치가 진짜 대박이네요. 캠장 가서 쓸예정인데 너무 든든합니다! 리모컨도 주머니 쏙 넣을수 있고 좋아요. 근데 본체 버튼이 전원모양 두개 회전모양 두개로 붙어져 왔어요 ㅎㅎ 시간, 풍량 버튼이 없고 같은버튼으로만 되어있어서 디자인인줄 알았는데 아니더라고요?ㅋㅋ 근데 교환하느니 됐다 싶어서 걍 쓸라고요~ 디자인도 이쁘고 넘 만족스럽습니다^^ 시원해요~ 올 여름 잘 나겟슴다!</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -889,10 +836,15 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8
-일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음
-소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8단까지 안해놔도 됏을것같은?왜냐면1단이 쓰고싶으면 8단까지 갓다가 1단와야하는게 좀 번거로워요 아그리고 제꺼 혹시 불량인가요?충전중에 빨간불이 들어오고 완충시 초록불이라고햇는데 따로 색도없어요 근데 배터리칸은 다차잇길래 배터리잇는지알앗더니 얼마쓰다 꺼져버리네요
-배터리가 얼마나 남앗는지도 알수가없어여 배터리칸이 계속 만땅이에요ㅜㅜ 이거 왜이러는지 알수있을까요?상품은 넘 맘에들고 좋아요</t>
+          <t>애기(여중학생)한테 뺏겼어요 ㅋㅋ예민해서 기존에 쓰던 선풍기 저 주고요걸로 바꿔갔어요리모컨도 있어서 책상밑 침대옆에두고다리쪽으로향하게 두고 쓰고있어요요모조모 기능좋은 제품이라 아주
+애기(여중학생)한테 뺏겼어요 ㅋㅋ
+예민해서 기존에 쓰던 선풍기 저 주고
+요걸로 바꿔갔어요
+리모컨도 있어서 책상밑 침대옆에두고
+다리쪽으로향하게 두고 쓰고있어요
+요모조모
+특히 진심 조용해요
+기존꺼랑 비교하면 화악! 달라요</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -904,12 +856,8 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱
-제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.
-보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱 맘에 드는 제품이에요.
-완전히 접혀져서 전용 파우치에 담아두면 쓰지 않을때나 캠핑 갈때 찰떡이구요, 높이 조절에 회전까지 되고..
-리모컨 있고.. 바람 세기 조절까지 쓰기가 너무 편해요!
-무엇보다 무선이라서 이 방 저 방 필요할때마다 가볍게 옮겨다닐 수 있어서 완전 대대대 만족이에요!</t>
+          <t>집에 도착하자마자 언박싱하고 부모님 퇴근 후 자랑했습니다 ㅋㅋ 디자인 너무 예쁘고 가볍고, 거기에 무선이라니 진짜 너무 좋아요. 평소에는 꽂아두고 사용하다가 전원선을 뽑아도 작동이
+집에 도착하자마자 언박싱하고 부모님 퇴근 후 자랑했습니다 ㅋㅋ 디자인 너무 예쁘고 가볍고, 거기에 무선이라니 진짜 너무 좋아요. 평소에는 꽂아두고 사용하다가 전원선을 뽑아도 작동이 되니까 누워서 바람 직빵으로 맞을 수 있다는 점이 최고였습니다. 접이식인 거 보여주고, 선을 딱 뽑았는데도 작동되는 걸 아버지 보여드리니 ㅇ0ㅇ이표정됨ㅋㅋㅋ BLDC 모터라 더 마음에 듭니다. 리모컨도 있어서 캠핑 다닐 때 쓰면 딱이겠어요. 추천합니다.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -921,9 +869,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋
-캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~
-받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋구요. 8단계까지 바람세기도 선택할 수 있는데 강력한 바람에 소음은 없어서 집에서 아기선풍기로 활용해도 좋겠더라구요. 특히 저희집은 아이들이 많이 뛰고해서 전기선에 걸려 넘어질까봐 늘 불안했는데 걱정 싹 사라졌어요. 캠핑용 야외용으로도 가정용으로도 활용성이 뛰어난 진짜 좋은 선풍기를 만나니 올 여름 왠지 든든하네요!</t>
+          <t>배송은 아주 맘에들어요.꼼꼼하게 포장되서 좋았어요.개봉하면서 웃었네요 미니미해서ㅎㅎ 크기가 상세히 나와있지만 실물로보니 작네요.금액에 비해.바람은 제법강해서 괜찮아요. 근데 8단까
+배송은 아주 맘에들어요.꼼꼼하게 포장되서 좋았어요.개봉하면서 웃었네요 미니미해서ㅎㅎ 크기가 상세히 나와있지만 실물로보니 작네요.금액에 비해.
+바람은 제법강해서 괜찮아요. 근데 8단까지 있는게 좀 불편하네요.한단 한단 올려야하니.글구 시간도 30분 단위가 안되고.
+좋은건 가볍고 어디에나 올려놔도 되고 무선이라서 코드 꽂기 애매할때 좋구 보관할때 쾌재를 부를듯.코펠같아요ㅎㅎ
+손풍기도 기엽^^</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -935,18 +885,8 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>세상에!착착 접히는 선풍기는 처음 봤어요!군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요폴딩도 간편하고 각도 조절도 안정적이고무선 선풍기라 일반 유선 선풍기 보다모터가 약할 거
-세상에!
-착착 접히는 선풍기는 처음 봤어요!
-군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요
-폴딩도 간편하고 각도 조절도 안정적이고
-무선 선풍기라 일반 유선 선풍기 보다
-모터가 약할 거라 생각했는데 전혀 약하지 않아서 놀랐어요
-소음도 적고요!
-폴딩 후 파우치에 딱 넣어서 보관하면 되니
-자리차지도 하지 않고 너무 좋아요
-다음주 아이와 캠핑 가기로 약속했는데 슥 들고 가려고요^^
-참! 사은품으로 보내주신 핸디 선풍기도 진짜 대박이었어요</t>
+          <t>선물용이었는데, 받는 사람이 매우 만족스럽다고 하더라구요. 높이 조절도 자유롭고, 접을 수도 있는데다, 무선 사용도 가능하고, 리모컨으로 조작도 가능하다고요. 정말 흠 잡을 곳이
+선물용이었는데, 받는 사람이 매우 만족스럽다고 하더라구요. 높이 조절도 자유롭고, 접을 수도 있는데다, 무선 사용도 가능하고, 리모컨으로 조작도 가능하다고요. 정말 흠 잡을 곳이 없는 제품이라며 극찬했어요. 덕분에 좋은 선물했습니다 ^^ 추천해요!!</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -958,12 +898,8 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에
-받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다
-생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에 놀랐네요
-역시 써큘레이터와는 바람의 질이 틀리네요
-단하나 아쉬운것은 휴대용가방이 규격이 딱이라 리모컨과 충전잭을 함께넣으니 지퍼닫기가 힘들고 튀어나오네요
-이것도 원래넣는방식이 있는데 제가 모르고 막넣어서 그런진 모르겠습니다만 조금 아쉬웠습니다</t>
+          <t>일단 바람이 다른선풍기와는 차원이 다르게 시원해요 에어컨 튼거마냥 시원해요 그리고 키높이가 조절되니까 제일.낮게해서 아기옷장위에 올려서 틀어주고 해요 유선무선 다 가능하고 타이머기
+일단 바람이 다른선풍기와는 차원이 다르게 시원해요 에어컨 튼거마냥 시원해요 그리고 키높이가 조절되니까 제일.낮게해서 아기옷장위에 올려서 틀어주고 해요 유선무선 다 가능하고 타이머기능도 있어서 아기가 아주 시원하게 잘 자요 솔직구매후기.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -975,8 +911,9 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서
-선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서 높낮이 조절도 가능하고, 손잡이가 있어서 벽에 걸어서 사용 가능하더라고요, 주방에서 음식냄새 빠르게 제거할 때랑, 에어컨 효율 높이기 위해 쓰기도 하고, 빨래 말릴 때도 쓰기 좋아요! 리모컨 있어서 편리하고~ 완충 해놓으면 무선으로도 6시간 연속 사용 가능하네요, 깔끔한 디자인이라서 더 예쁘고 마음에 쏙 들어요!</t>
+          <t>캠핑 때문에 구매 했는데, 일단 파우치가 포함이라 보관이나 트렁크에 넣기 편해서 좋습니다. 폴더블 방식이라 가방에 넣으면 코펠정도 밖에 안되네요. 그리고 무선이라 선으로부터 자유로
+캠핑 때문에 구매 했는데, 일단 파우치가 포함이라 보관이나 트렁크에 넣기 편해서 좋습니다. 폴더블 방식이라 가방에 넣으면 코펠정도 밖에 안되네요.
+그리고 무선이라 선으로부터 자유로운게 너무 좋고 전체적인 마감이나 퀄리티도 너무 좋습니다. 추천해요.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -988,12 +925,9 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>이건 사셔야합니다. 일단 가벼워서 옮기기편하고 무선이 환상입니다! 밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요접어서 보관하면 부피
-이건 사셔야합니다.
-일단 가벼워서 옮기기편하고 무선이 환상입니다!
-밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요
-접어서 보관하면 부피도줄고 파우치도있고, 1~8단까지인데 강풍은 아니지만 세세하게 나뉘어있고 저는 2단이 좋더라구요. 옛날 무거운선풍기 쓰시는 어머니께도 주문해드렸습니다.
-저희집도 요거로 다 바꿀예정이어요</t>
+          <t>바람 단계가 많고 조용한편이고 무선이라 좋기는 한데 그래도 오래 틀어두려면 선연결해서 쓰는데 어댑터 선이 너무 짧은건 단점입니다.손풍기 같이 동봉해줘서 좋아요. 증정된 손풍기 너무
+바람 단계가 많고 조용한편이고 무선이라 좋기는 한데 그래도 오래 틀어두려면 선연결해서 쓰는데 어댑터 선이 너무 짧은건 단점입니다.
+손풍기 같이 동봉해줘서 좋아요. 증정된 손풍기 너무 작아서 바람이 불까싶었는데 강하게 틀면 나름 시원하네요</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1005,15 +939,9 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.굳이 8단까지 필요한가 싶어요. 2단에서
-집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.
-주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.
-굳이 8단까지 필요한가 싶어요. 2단에서 다시 1단으로 가려면 3단위로해서 8단까지 갔다가 1단으로 가야해요.
-1단 2단도 풍량의 차이가 없어요.
-충전 어댑터 꽂혀있을 때랑 선없을 때랑 풍속이 다릅니다.
-껐다가 켰을때 1단이 아니고 2단으로 시작해요.
-무게도 꽤 돼서 텐트에 걸어서 설치해도 될까 싶어요.
-등등해서 접을 수 있다는거 빼곤 별로예요.</t>
+          <t>귀여워요~~ 특히 보관가방이??ㅋㅋ 사용하면서도 귀여운데 나중에 보관할 생각하면 기분 좋습니다. 다른 선풍기은 조립해체하고 커다란 박스에 넣어야해서 자리도 많이 차지하고&amp;helli
+귀여워요~~ 특히 보관가방이??ㅋㅋ 사용하면서도 귀여운데 나중에 보관할 생각하면 기분 좋습니다. 다른 선풍기은 조립해체하고 커다란 박스에 넣어야해서 자리도 많이 차지하고…
+바람도 좋고 리모컨이 정말정말 신의 한수네요^^</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1025,14 +953,9 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ뭐 물건은 말해 뭐합니까 ㅎㅎㅎ 유선/무선 겸용으로 사용가능하구바람단계 8단계에 그냥 하
-그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ
-뭐 물건은 말해 뭐합니까 ㅎㅎㅎ
-유선/무선 겸용으로 사용가능하구
-바람단계 8단계에 그냥 하나같이 완벽 합니당
-다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 후회 하나도 안해요 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다
-근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 더 맘에들어용 &gt;_&lt; 포장도 잘되서 왔고 하자도 없고 리모컨도 있구 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요
-주변에서 누군가가 캠핑용 서큘레이터 찾는다하면 추천할거가테용 ㅎㅎ 많이파세요!!</t>
+          <t>배송빠르게 잘받앗습니다. 사은품도 잘쓸게요.초미풍에 소음이 잇다는건 틀어보니 무슨말인지알겠고 예민하신 분들은 잘때 틀어놓긴 거슬릴것같은데 저는 서큘레이터로 쓰려고 사서 소음은 상관
+배송빠르게 잘받앗습니다. 사은품도 잘쓸게요.
+초미풍에 소음이 잇다는건 틀어보니 무슨말인지알겠고 예민하신 분들은 잘때 틀어놓긴 거슬릴것같은데 저는 서큘레이터로 쓰려고 사서 소음은 상관없을거같네요. 접이식이라 다양하게 쓸수잇어서 좋네요. 리모컨이 스티로폴박스 사이에 잇어서 하마터면 버릴뻔ㅋ 잘쓸게요</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1044,13 +967,8 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>캠핑장에서도 집에서도 정말 유용한 제품입니다. 무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해
-캠핑장에서도 집에서도 정말 유용한 제품입니다.
-무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.
-집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해요.
-소음이 거의 느껴지지 않을만큼 조용한데 바람은 강력해서 이거 사고 원래 집에있던 유선선풍기는 아예 쓰질 않네요;;
-멀티탭 연결해서 길게 선풍기 선이 나와있는거 정말 보기 싫었는데 마음의 평안을 찾았어요
-무조건 강추에요!</t>
+          <t>아담한 크기지만 생각보다 바람도 세고 무엇보다 무선이라 이동성이 좋아 여기저기 필요한 장소로 가지고 다니면서 쓸 수 있고 접었다 폈다 모양 조절, 각도 조절을 할 수 있어서 좋아요
+아담한 크기지만 생각보다 바람도 세고 무엇보다 무선이라 이동성이 좋아 여기저기 필요한 장소로 가지고 다니면서 쓸 수 있고 접었다 폈다 모양 조절, 각도 조절을 할 수 있어서 좋아요. 보관용 파우치가 있어 야외로 가지고 기도 편하고 겨울에 보관하기도 편하겠어요.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1062,11 +980,13 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다! 리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!크
-다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다!
-리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!
-크기가 작을까봐 걱정했는데 딱 적당하면서 완전히 접혀서 보관이나 다른 장소로 들고다니기도 좋을거같습니당~
-잘 쓸게요!!</t>
+          <t>우선 시원하고 수납성은 좋습니다.근데.. 1단계 및 자연풍이 너무 쎕니다.특히 1단계 및 자연풍때도 펜소음이 커서원래쓰던 브리즈킹 제품으로 옮겨 놓았어요무소음은 아닙니다. 생각보다
+우선 시원하고 수납성은 좋습니다.
+근데.. 1단계 및 자연풍이 너무 쎕니다.
+특히 1단계 및 자연풍때도 펜소음이 커서
+원래쓰던 브리즈킹 제품으로 옮겨 놓았어요
+무소음은 아닙니다. 생각보다 소음 있고 아기 한테 하시려면 먼 곳에 갔다 놓고 쓰셔야겠네요.
+.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1078,8 +998,8 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약
-생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약강만 반복되네요 조용하다 시끄러워지고 반복..1단도 꽤 쎈 바람이 나오는데 1단보다 약한 바람이 한단계 더있었으면 좋았을텐데.. 유선 1단이 너무 쎄고 소음이 좀있네요 바닥 생활을 해서 가슴 아래로 바람이 갈수있는 선풍기는 이런류의 선풍기가 유일한듯 싶네요 그래서 구입했습니다.</t>
+          <t>작고 가벼워서 이동하기 너무 편리합니다. 디자인도 깔끔해서 맘에들어요 그리고 생각보다 시원하고 회전각도도 많이 돌아가서 정말 잘산거같아요 여름 지나서 보관하기도 너무 컴팩트하고 최
+작고 가벼워서 이동하기 너무 편리합니다. 디자인도 깔끔해서 맘에들어요 그리고 생각보다 시원하고 회전각도도 많이 돌아가서 정말 잘산거같아요 여름 지나서 보관하기도 너무 컴팩트하고 최근들어서 한 쇼핑중에 제일 맘에들어요!</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1091,13 +1011,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에
-더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.
-집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요.
-보만 제품의 만족도가 큰데 이번에 구입한 선풍기도 너무 이쁘고, 가볍고!
-소음이 적은데다 착착 접이는 무선선풍기라 활용도가 엄청 좋네요~
-조용한데 아주 시원해요.
-다음주에 캠핑 갈 계획이라 보관 가방에 넣어 캠핑장에 가지고 가려구요.</t>
+          <t>날이 점점 더워서 휴대용 큰사이즈선풍기 찾다가 주문했는데 실제로받아보니 완전 큼직하구 바람도 강해서너무 좋아요!각도 조절,높이 조절도 내맘대로 되고 걸어 써도 되니까 편해요야외에
+날이 점점 더워서 휴대용 큰사이즈
+선풍기 찾다가 주문했는데 실제로
+받아보니 완전 큼직하구 바람도 강해서
+너무 좋아요!
+각도 조절,높이 조절도 내맘대로 되고
+걸어 써도 되니까 편해요
+~</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1109,11 +1030,10 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.주방아일랜드위에 올려놓으시고 잘 사
-저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.
-집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.
-주방아일랜드위에 올려놓으시고 잘 사용하고 계십니다.
-가벼워서 좋고 충전도편하고 어디든 들고다닐수있고 보관용이하고.. 세상좋은 보만이어요</t>
+          <t>생각보다 작은 사이즈에 조금 놀랐네요^^;;디자인은 깔끔하고 이쁘지만 소음은 일반선풍기랑 비교하면 별 차이는 없는 것 같아요케이스가 있어 보관하기는 편리하겠어요~
+생각보다 작은 사이즈에 조금 놀랐네요^^;;
+디자인은 깔끔하고 이쁘지만 소음은 일반선풍기랑 비교하면 별 차이는 없는 것 같아요
+케이스가 있어 보관하기는 편리하겠어요~</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1125,18 +1045,9 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>잘 사용하고 있어요.생각했던 것보다 소음이 좀 있기는한데,바람세기도 8단계나 되고 이동하기도 편해서만족스러운 구매였던 것 같아요.아! 그리고 충전기 연결해서 사용하면 바람세기가같은
-잘 사용하고 있어요.
-생각했던 것보다 소음이 좀 있기는한데,
-바람세기도 8단계나 되고 이동하기도 편해서
-만족스러운 구매였던 것 같아요.
-아! 그리고 충전기 연결해서 사용하면 바람세기가
-같은 1인데도 더 세구요.
-충전 다하고 코드 빼고 사용하면 좀 약해요.
-저는 약한게 좋아서 충전 다하고 사용중이에요.
-그런데 오랜만에 왔더니 가격이 저렴해졌네요.
-한달 잘 사용중이지만 아쉽네요.ㅎㅎㅎ
-아무튼 오래 잘 사용할께요~!</t>
+          <t>심플한 외형을 보고 성능이 좋을까 싶었는데 사이즈도 마음대로 조절할수 있을 뿐만 아니라 성능도 좋아서 시원한 여름을 보낼 수 있을 것 같습니다.다만 풍량 조절을 단계별로 지정할 수
+심플한 외형을 보고 성능이 좋을까 싶었는데 사이즈도 마음대로 조절할수 있을 뿐만 아니라 성능도 좋아서 시원한 여름을 보낼 수 있을 것 같습니다.
+다만 풍량 조절을 단계별로 지정할 수 없는 것은 다소 아쉽네요</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1148,10 +1059,8 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람
-정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.
-리모콘까지 되어서 편리하고요. 9단까지 바람이 조절되고 타이머는 9시간 까지 설정됩니다. 자연바람까지 설정되네요. 회전도 됩니다. ㄷㄷ
-더더 대박은 충전하는동안도 사용이 가능해서 집에서는 유선 선풍기로 캠핑가서는 무선으로 여름내내 잘 사용할것 같습니다.</t>
+          <t>유선 연결시 소리가 다소 있지만 못들을 정도는 아니네요. 무엇보다 크기에 비해 너무 시원하고 휴대하면서 다니기에도 좋고 회전도 잘되고 기능적으로 아주 만족스럽습니다.
+유선 연결시 소리가 다소 있지만 못들을 정도는 아니네요. 무엇보다 크기에 비해 너무 시원하고 휴대하면서 다니기에도 좋고 회전도 잘되고 기능적으로 아주 만족스럽습니다.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1163,9 +1072,8 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다아이들
-사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다
-아이들 방에 놓아도 좋을것 같아서 하나더 구입하고 싶어요</t>
+          <t>크기도 딱 제가 원하던 사이즈에 높낮이를 자유롭게 조절할 수 있는 것이 맘에 들어요. 그리고 선풍피 아래가 돌면서 회전하는 신박함. 그런데 소음이 생각보다 있어요. 그래서 별 하나
+크기도 딱 제가 원하던 사이즈에 높낮이를 자유롭게 조절할 수 있는 것이 맘에 들어요. 그리고 선풍피 아래가 돌면서 회전하는 신박함. 그런데 소음이 생각보다 있어요. 그래서 별 하나 뺐어요.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1177,23 +1085,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>무선의 최대장점 어디에서든 사용가능해서 구매했어요야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요사이즈는 너무 크지도 작지도않게 적당하고
-무선의 최대장점 어디에서든 사용가능해서 구매했어요
-야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요
-사이즈는 너무 크지도 작지도않게 적당하고 무게감이 살짝있지만 차에 싣고다니면 문제없을정도 입니다
-사실 몇시간씩 들고 이동할거 아니면 무게감은 상관없을듯요
-선풍기 목 길이를 짧게하면 귀여운데 길게하면 나름 포스 뿜뿜! 목 길게하면 쇼파에앉아 사용할수있을정도로 목이 늘어나요 심지어 머리도 각도조절되니 어느 위치에서든 원하는 위치로 바람이 슝슝~~
-무선에 리모콘까지~ 귀차니즘들에게 딱인제품이예요
-그리고 소음이 심한가 여러번 작동시켜봤는데 소음걱정은 안하셔도 될듯합니다 일반 선풍기 돌아가는 소리정도 납니다
-또한 충전중에도 작동이되서 콘센트가 있는곳이면 코드 꽂아사용하니 활용도 굿 👍
-무선치고 힘도좋아 시원하네요
-단계조절이 1단부터 8단까지니 취향껏 단계조절 하시며 쓰시면 좋을듯합니다
-기본 전원누르면 2단계가 세팅되는데 집안에선 2단계도 시원한느낌이예요
-에어컨과함께 사용시 1단계도 충분하네요
-한번충전에(풀 4시간충전) 6시간사용이니 전 만족합니다
-사실 야구장갈때 쓰려고 산거라 야구관람하며 사용하기엔 충분한 시간인듯해서 이번주 금요일 이 아이와함께 야구장 출동합니다ㅋ
-덕분에 시원한 관람될것같네요
-감사히 잘쓰겠습니다</t>
+          <t>여름 캠핑때 선풍기 또 어떻게 차에 넣나 고민했는데그 고민 싹 사라졌네요가볍고 바람도 풍성하고 디자인까지 예뻐서 집에서도 야외에서도 쓰기에 아주 만족입니다리모컨도 있어서 더욱 편리
+여름 캠핑때 선풍기 또 어떻게 차에 넣나 고민했는데
+그 고민 싹 사라졌네요
+가볍고 바람도 풍성하고 디자인까지 예뻐서 집에서도 야외에서도 쓰기에 아주 만족입니다
+리모컨도 있어서 더욱 편리해요</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1205,12 +1101,10 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.무선으로 자유롭게 움직이며 사용할 수 있
-세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.
-무선으로 자유롭게 움직이며 사용할 수 있고 피크닉, 캠핑용으로 사용할 수 있는 점이 마음에 듭니다. 집이 공간이 작은 편인데 사용하지 않을 때는 접어서 보관을 할 수 있어 여름이 지난 후에 정리를 할 때도 좋을 것 같아요.
-공간이 작아서 두개를 사용할 필요는 없는데 사용하기 편한 크기와 각도로 설정하여 이동하기도 편하고...충전을 하고 벽걸이 또는 테이블 용으로 사용할 수 있어 너무 잘 활용하고 있어요.
-스탠드형이 아닌 접이식이라 내구성도 꼼꼼하게 살펴봤는데 역시 보만의 만듬새는 우수하더군요.
-일반적인 형태의 제품보다 확실하게 편의성이 뛰어나고 활용도가 높다는걸 참고하시면 될 것 같아요.</t>
+          <t>장점-빠른 배송.사이즈 작아서 좋고.휴대하기 최고.안 쓸때 보관도 자리 차지 않고 정말 좋고.바람도 약하지 않아요.작은 휴대용 선풍기를 주셨네요.너무 예쁘고 시원해요.단점-약간 소
+장점-빠른 배송.사이즈 작아서 좋고.휴대하기 최고.안 쓸때 보관도 자리 차지 않고 정말 좋고.바람도 약하지 않아요.
+작은 휴대용 선풍기를 주셨네요.너무 예쁘고 시원해요.
+단점-약간 소음이 있네요.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1222,27 +1116,8 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>일반선풍기 찾아보다가 발견하고 구매했어요.작고 소음도 없는 편이라고 해서요.음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.저는
-일반선풍기 찾아보다가 발견하고 구매했어요.
-작고 소음도 없는 편이라고 해서요.
-음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ
-이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.
-저는 캠핑용이라 아니라 제 방에서 사용할꺼라..
-세기를 1정도하면 초미풍처럼 아주 조용할 줄 알았거든요.
-아무튼 부피는 작아도 겁나 바람이 센데다
-바람세기 정도가 10까지 있어요.
-그리고 회전하니 진짜 몸통까지 다 돌아가네요.
-후기보고 어떤 느낌인가했는데, 이런거군요.ㅎㅎㅎ
-디자인은 참 이쁘고 세련됐어요.
-보관도 컴팩트하게 할 수 있어서 좋기도하구요.
-안방 선풍기와 비교했더니 미니하고 귀엽기도 하구요.
-남동생이 캠핑 자주 다니는데 벌써 탐내하네요.ㅎㅎㅎ
-뭐, 개인적으로 좀 실망하긴했지만,
-작은 선풍기치고는 내구성도 괜찮은 것 같고
-전반적으로 좋은 부분이 많아서 만족하는 구매에요.
-사은품으로 주신 미니선풍기도 감사해요.
-얘도 작은게 바람세기가 겁나 세네요.
-오래오래 잘 사용해볼께요^^</t>
+          <t>일반 유선 선풍기에 비하면 바람이 최대 8로 해둬도 약한 듯 싶고, 소음은 소음 대로 크고... 밑판이 회전되고 접혀서 보관은 용이할 수 있는데, 다소 아쉽네요.
+일반 유선 선풍기에 비하면 바람이 최대 8로 해둬도 약한 듯 싶고, 소음은 소음 대로 크고... 밑판이 회전되고 접혀서 보관은 용이할 수 있는데, 다소 아쉽네요.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1254,10 +1129,9 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8
-일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음
-소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8단까지 안해놔도 됏을것같은?왜냐면1단이 쓰고싶으면 8단까지 갓다가 1단와야하는게 좀 번거로워요 아그리고 제꺼 혹시 불량인가요?충전중에 빨간불이 들어오고 완충시 초록불이라고햇는데 따로 색도없어요 근데 배터리칸은 다차잇길래 배터리잇는지알앗더니 얼마쓰다 꺼져버리네요
-배터리가 얼마나 남앗는지도 알수가없어여 배터리칸이 계속 만땅이에요ㅜㅜ 이거 왜이러는지 알수있을까요?상품은 넘 맘에들고 좋아요</t>
+          <t>디자인도 깔끔하도 배송도 빠릅니다.소음은 일반 선풍기 미풍이랑 비교하면 조금 더 나는 수준이고, 서큘레이터(보네이도) 1단 보다는 작은 수준입니나.
+디자인도 깔끔하도 배송도 빠릅니다.
+소음은 일반 선풍기 미풍이랑 비교하면 조금 더 나는 수준이고, 서큘레이터(보네이도) 1단 보다는 작은 수준입니나.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1269,12 +1143,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱
-제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.
-보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱 맘에 드는 제품이에요.
-완전히 접혀져서 전용 파우치에 담아두면 쓰지 않을때나 캠핑 갈때 찰떡이구요, 높이 조절에 회전까지 되고..
-리모컨 있고.. 바람 세기 조절까지 쓰기가 너무 편해요!
-무엇보다 무선이라서 이 방 저 방 필요할때마다 가볍게 옮겨다닐 수 있어서 완전 대대대 만족이에요!</t>
+          <t>보관성에 아주 만족했고요접이식선풍기의 장점을 다가졌네요이동도 편하구요아들방 옷걸이에 걸어두고 사용중입니다.~옛날의 뭉퉁하고 무겁던 선풍기 분해둔거 버릴랍니다
+보관성에 아주 만족했고요
+접이식선풍기의 장점을 다가졌네요
+이동도 편하구요
+아들방 옷걸이에 걸어두고 사용중입니다.~
+옛날의 뭉퉁하고 무겁던 선풍기 분해둔거 버릴랍니다</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1286,9 +1160,10 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋
-캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~
-받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋구요. 8단계까지 바람세기도 선택할 수 있는데 강력한 바람에 소음은 없어서 집에서 아기선풍기로 활용해도 좋겠더라구요. 특히 저희집은 아이들이 많이 뛰고해서 전기선에 걸려 넘어질까봐 늘 불안했는데 걱정 싹 사라졌어요. 캠핑용 야외용으로도 가정용으로도 활용성이 뛰어난 진짜 좋은 선풍기를 만나니 올 여름 왠지 든든하네요!</t>
+          <t>아기바람은 아닌거 같아요. 1단계도 생각보다 바람이 셉니다.무선인점 접어서 보관 가능한점은 좋았습니다.충천기가 되게 뜨거울때가 있던대 정상인지 모르겠네요
+아기바람은 아닌거 같아요. 1단계도 생각보다 바람이 셉니다.
+무선인점 접어서 보관 가능한점은 좋았습니다.
+충천기가 되게 뜨거울때가 있던대 정상인지 모르겠네요</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1300,18 +1175,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>세상에!착착 접히는 선풍기는 처음 봤어요!군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요폴딩도 간편하고 각도 조절도 안정적이고무선 선풍기라 일반 유선 선풍기 보다모터가 약할 거
-세상에!
-착착 접히는 선풍기는 처음 봤어요!
-군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요
-폴딩도 간편하고 각도 조절도 안정적이고
-무선 선풍기라 일반 유선 선풍기 보다
-모터가 약할 거라 생각했는데 전혀 약하지 않아서 놀랐어요
-소음도 적고요!
-폴딩 후 파우치에 딱 넣어서 보관하면 되니
-자리차지도 하지 않고 너무 좋아요
-다음주 아이와 캠핑 가기로 약속했는데 슥 들고 가려고요^^
-참! 사은품으로 보내주신 핸디 선풍기도 진짜 대박이었어요</t>
+          <t>캠핑 자주다니는데 슬금슬금 날씨가더워져서 미리 장만했는데 이번주말에엄청 덥더라구요 그래서 사용했어요!자연바람으로 하니 선선하니 너무 좋네요.접이식이라 간편하게 들고 다니기도 좋구요
+캠핑 자주다니는데 슬금슬금 날씨가
+더워져서 미리 장만했는데 이번주말에
+엄청 덥더라구요 그래서 사용했어요!
+자연바람으로 하니 선선하니 너무 좋네요.
+접이식이라 간편하게 들고 다니기도 좋구요!</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1323,12 +1192,10 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에
-받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다
-생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에 놀랐네요
-역시 써큘레이터와는 바람의 질이 틀리네요
-단하나 아쉬운것은 휴대용가방이 규격이 딱이라 리모컨과 충전잭을 함께넣으니 지퍼닫기가 힘들고 튀어나오네요
-이것도 원래넣는방식이 있는데 제가 모르고 막넣어서 그런진 모르겠습니다만 조금 아쉬웠습니다</t>
+          <t>배송은 진짜 빨랐어요~생각보다 작긴하지만 실용성 좋아요!!무선도 되고 집에서는 그냥 코드 꽂아놓고 쓰고있습니다. 잘쓸게요
+배송은 진짜 빨랐어요~
+생각보다 작긴하지만 실용성 좋아요!!
+무선도 되고 집에서는 그냥 코드 꽂아놓고 쓰고있습니다. 잘쓸게요</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1340,8 +1207,8 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서
-선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서 높낮이 조절도 가능하고, 손잡이가 있어서 벽에 걸어서 사용 가능하더라고요, 주방에서 음식냄새 빠르게 제거할 때랑, 에어컨 효율 높이기 위해 쓰기도 하고, 빨래 말릴 때도 쓰기 좋아요! 리모컨 있어서 편리하고~ 완충 해놓으면 무선으로도 6시간 연속 사용 가능하네요, 깔끔한 디자인이라서 더 예쁘고 마음에 쏙 들어요!</t>
+          <t>빠른 배송 감사드리며 생각보다는 작지만 강력한 성능과 비교적 소음이 적고 여러 형태로 변환이 가능하여 매루 만족합니다.
+빠른 배송 감사드리며 생각보다는 작지만 강력한 성능과 비교적 소음이 적고 여러 형태로 변환이 가능하여 매루 만족합니다.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1353,12 +1220,10 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>이건 사셔야합니다. 일단 가벼워서 옮기기편하고 무선이 환상입니다! 밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요접어서 보관하면 부피
-이건 사셔야합니다.
-일단 가벼워서 옮기기편하고 무선이 환상입니다!
-밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요
-접어서 보관하면 부피도줄고 파우치도있고, 1~8단까지인데 강풍은 아니지만 세세하게 나뉘어있고 저는 2단이 좋더라구요. 옛날 무거운선풍기 쓰시는 어머니께도 주문해드렸습니다.
-저희집도 요거로 다 바꿀예정이어요</t>
+          <t>적당한 크기에 가볍고 좋아요! 디자인도 깔끔해서 어디든 잘 어울릴 것 같습니다.집에서도 쓰고 캠핑장에서도 쓰는데 편해요!충전기 선이 짧아서 좀 아쉬워요!
+적당한 크기에 가볍고 좋아요! 디자인도 깔끔해서 어디든 잘 어울릴 것 같습니다.
+집에서도 쓰고 캠핑장에서도 쓰는데 편해요!
+충전기 선이 짧아서 좀 아쉬워요!</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1370,15 +1235,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.굳이 8단까지 필요한가 싶어요. 2단에서
-집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.
-주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.
-굳이 8단까지 필요한가 싶어요. 2단에서 다시 1단으로 가려면 3단위로해서 8단까지 갔다가 1단으로 가야해요.
-1단 2단도 풍량의 차이가 없어요.
-충전 어댑터 꽂혀있을 때랑 선없을 때랑 풍속이 다릅니다.
-껐다가 켰을때 1단이 아니고 2단으로 시작해요.
-무게도 꽤 돼서 텐트에 걸어서 설치해도 될까 싶어요.
-등등해서 접을 수 있다는거 빼곤 별로예요.</t>
+          <t>폴더블은 좋으네요.생각했던거보다 소음이 좀 있지만야외용이니.1-4단 풍량이 비슷한대 정상인지요.스크래치 도 좀 있었지만 교환반품 번거로우니.길이조절.회전되서 좋으네요
+폴더블은 좋으네요.
+생각했던거보다 소음이 좀 있지만
+야외용이니.
+1-4단 풍량이 비슷한대 정상인지요.
+스크래치 도 좀 있었지만 교환반품 번거로우니.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1390,14 +1252,8 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ뭐 물건은 말해 뭐합니까 ㅎㅎㅎ 유선/무선 겸용으로 사용가능하구바람단계 8단계에 그냥 하
-그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ
-뭐 물건은 말해 뭐합니까 ㅎㅎㅎ
-유선/무선 겸용으로 사용가능하구
-바람단계 8단계에 그냥 하나같이 완벽 합니당
-다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 후회 하나도 안해요 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다
-근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 더 맘에들어용 &gt;_&lt; 포장도 잘되서 왔고 하자도 없고 리모컨도 있구 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요
-주변에서 누군가가 캠핑용 서큘레이터 찾는다하면 추천할거가테용 ㅎㅎ 많이파세요!!</t>
+          <t>아담해서 거실보다는 방에서 자리차지 않고 쓸수있어요 작아도 바람세기도 좋고 소음도 적은듯...무선도 되고 보관가방도 있어 캠핑용으로 써야겠어요
+아담해서 거실보다는 방에서 자리차지 않고 쓸수있어요 작아도 바람세기도 좋고 소음도 적은듯...무선도 되고 보관가방도 있어 캠핑용으로 써야겠어요</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1409,13 +1265,8 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>캠핑장에서도 집에서도 정말 유용한 제품입니다. 무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해
-캠핑장에서도 집에서도 정말 유용한 제품입니다.
-무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.
-집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해요.
-소음이 거의 느껴지지 않을만큼 조용한데 바람은 강력해서 이거 사고 원래 집에있던 유선선풍기는 아예 쓰질 않네요;;
-멀티탭 연결해서 길게 선풍기 선이 나와있는거 정말 보기 싫었는데 마음의 평안을 찾았어요
-무조건 강추에요!</t>
+          <t>작지만 충분한 풍량이 맘에 드네요.무선이라 이동하기에도 좋고 제품 마무리도 깔끔하구요.디자인도 예뻐요.
+작지만 충분한 풍량이 맘에 드네요.무선이라 이동하기에도 좋고 제품 마무리도 깔끔하구요.디자인도 예뻐요.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1427,11 +1278,9 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다! 리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!크
-다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다!
-리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!
-크기가 작을까봐 걱정했는데 딱 적당하면서 완전히 접혀서 보관이나 다른 장소로 들고다니기도 좋을거같습니당~
-잘 쓸게요!!</t>
+          <t>접이식으로 수납이 어마어마하게 좋음무선이라 이동이 편함 폈을때 중심부가 약해서 동작시 몸체가 흔들리고 부실한게 단점임
+접이식으로 수납이 어마어마하게 좋음
+무선이라 이동이 편함 폈을때 중심부가 약해서 동작시 몸체가 흔들리고 부실한게 단점임</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1443,8 +1292,10 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약
-생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약강만 반복되네요 조용하다 시끄러워지고 반복..1단도 꽤 쎈 바람이 나오는데 1단보다 약한 바람이 한단계 더있었으면 좋았을텐데.. 유선 1단이 너무 쎄고 소음이 좀있네요 바닥 생활을 해서 가슴 아래로 바람이 갈수있는 선풍기는 이런류의 선풍기가 유일한듯 싶네요 그래서 구입했습니다.</t>
+          <t>충전해서 여기 저기 들고 다니며 시원한바람을 사용할 수 있어 넘 조아요소음도 거의 들리지 않고요
+충전해서 여기 저기 들고 다니며 시원한
+바람을 사용할 수 있어 넘 조아요
+소음도 거의 들리지 않고요</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1456,13 +1307,8 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에
-더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.
-집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요.
-보만 제품의 만족도가 큰데 이번에 구입한 선풍기도 너무 이쁘고, 가볍고!
-소음이 적은데다 착착 접이는 무선선풍기라 활용도가 엄청 좋네요~
-조용한데 아주 시원해요.
-다음주에 캠핑 갈 계획이라 보관 가방에 넣어 캠핑장에 가지고 가려구요.</t>
+          <t>크기도 적당하고 꽤 조용합니다. 책상위에 올려놓고 쓰기도 딱 좋구요. 제가 더위를 잘타서 골랐는데 너무 만족합니다. 검은색이 있었으면 더 좋았을거 같아요.
+크기도 적당하고 꽤 조용합니다. 책상위에 올려놓고 쓰기도 딱 좋구요. 제가 더위를 잘타서 골랐는데 너무 만족합니다. 검은색이 있었으면 더 좋았을거 같아요.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1474,11 +1320,8 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.주방아일랜드위에 올려놓으시고 잘 사
-저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.
-집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.
-주방아일랜드위에 올려놓으시고 잘 사용하고 계십니다.
-가벼워서 좋고 충전도편하고 어디든 들고다닐수있고 보관용이하고.. 세상좋은 보만이어요</t>
+          <t>8단선풍기인데 1단도 아주약하지 않아서 소리가 생각보다 좀 나네요. 이것 외에는 다 좋아요.
+8단선풍기인데 1단도 아주약하지 않아서 소리가 생각보다 좀 나네요. 이것 외에는 다 좋아요.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1490,18 +1333,8 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>잘 사용하고 있어요.생각했던 것보다 소음이 좀 있기는한데,바람세기도 8단계나 되고 이동하기도 편해서만족스러운 구매였던 것 같아요.아! 그리고 충전기 연결해서 사용하면 바람세기가같은
-잘 사용하고 있어요.
-생각했던 것보다 소음이 좀 있기는한데,
-바람세기도 8단계나 되고 이동하기도 편해서
-만족스러운 구매였던 것 같아요.
-아! 그리고 충전기 연결해서 사용하면 바람세기가
-같은 1인데도 더 세구요.
-충전 다하고 코드 빼고 사용하면 좀 약해요.
-저는 약한게 좋아서 충전 다하고 사용중이에요.
-그런데 오랜만에 왔더니 가격이 저렴해졌네요.
-한달 잘 사용중이지만 아쉽네요.ㅎㅎㅎ
-아무튼 오래 잘 사용할께요~!</t>
+          <t>만족해요 다만 코드가 밑에 꼽게되어있어서 유무선 사용시 들고 꼽아야하는 단점이 있어요. 코드선이 측면에 있다면 더 좋았을듯 합니다
+만족해요 다만 코드가 밑에 꼽게되어있어서 유무선 사용시 들고 꼽아야하는 단점이 있어요. 코드선이 측면에 있다면 더 좋았을듯 합니다</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1513,10 +1346,10 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람
-정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.
-리모콘까지 되어서 편리하고요. 9단까지 바람이 조절되고 타이머는 9시간 까지 설정됩니다. 자연바람까지 설정되네요. 회전도 됩니다. ㄷㄷ
-더더 대박은 충전하는동안도 사용이 가능해서 집에서는 유선 선풍기로 캠핑가서는 무선으로 여름내내 잘 사용할것 같습니다.</t>
+          <t>조용하고 시원하네요회전도 단계가 있으면 좋겠네요그리고 충전시 어뎁터에 열이 많이 발생해서 살짝 걱이 됩니다
+조용하고 시원하네요
+회전도 단계가 있으면 좋겠네요
+그리고 충전시 어뎁터에 열이 많이 발생해서 살짝 걱이 됩니다</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1528,9 +1361,8 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다아이들
-사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다
-아이들 방에 놓아도 좋을것 같아서 하나더 구입하고 싶어요</t>
+          <t>주방까지 에어컨 바람이 닿지 않아 주방에 두고 사용하고 있어요 ~ 평소엔 집에서 사용하다가 야외로 놀러 나갈 땐 챙겨나가려고 미리 여름준비했네요~ 마음에 들어요!
+주방까지 에어컨 바람이 닿지 않아 주방에 두고 사용하고 있어요 ~ 평소엔 집에서 사용하다가 야외로 놀러 나갈 땐 챙겨나가려고 미리 여름준비했네요~ 마음에 들어요!</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1542,23 +1374,8 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>무선의 최대장점 어디에서든 사용가능해서 구매했어요야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요사이즈는 너무 크지도 작지도않게 적당하고
-무선의 최대장점 어디에서든 사용가능해서 구매했어요
-야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요
-사이즈는 너무 크지도 작지도않게 적당하고 무게감이 살짝있지만 차에 싣고다니면 문제없을정도 입니다
-사실 몇시간씩 들고 이동할거 아니면 무게감은 상관없을듯요
-선풍기 목 길이를 짧게하면 귀여운데 길게하면 나름 포스 뿜뿜! 목 길게하면 쇼파에앉아 사용할수있을정도로 목이 늘어나요 심지어 머리도 각도조절되니 어느 위치에서든 원하는 위치로 바람이 슝슝~~
-무선에 리모콘까지~ 귀차니즘들에게 딱인제품이예요
-그리고 소음이 심한가 여러번 작동시켜봤는데 소음걱정은 안하셔도 될듯합니다 일반 선풍기 돌아가는 소리정도 납니다
-또한 충전중에도 작동이되서 콘센트가 있는곳이면 코드 꽂아사용하니 활용도 굿 👍
-무선치고 힘도좋아 시원하네요
-단계조절이 1단부터 8단까지니 취향껏 단계조절 하시며 쓰시면 좋을듯합니다
-기본 전원누르면 2단계가 세팅되는데 집안에선 2단계도 시원한느낌이예요
-에어컨과함께 사용시 1단계도 충분하네요
-한번충전에(풀 4시간충전) 6시간사용이니 전 만족합니다
-사실 야구장갈때 쓰려고 산거라 야구관람하며 사용하기엔 충분한 시간인듯해서 이번주 금요일 이 아이와함께 야구장 출동합니다ㅋ
-덕분에 시원한 관람될것같네요
-감사히 잘쓰겠습니다</t>
+          <t>유무선이라 들고 다니기 간편하고 야외에서도 좋아요 가볍고 디자인도 마음에 듭니다
+유무선이라 들고 다니기 간편하고 야외에서도 좋아요 가볍고 디자인도 마음에 듭니다</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1570,12 +1387,8 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.무선으로 자유롭게 움직이며 사용할 수 있
-세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.
-무선으로 자유롭게 움직이며 사용할 수 있고 피크닉, 캠핑용으로 사용할 수 있는 점이 마음에 듭니다. 집이 공간이 작은 편인데 사용하지 않을 때는 접어서 보관을 할 수 있어 여름이 지난 후에 정리를 할 때도 좋을 것 같아요.
-공간이 작아서 두개를 사용할 필요는 없는데 사용하기 편한 크기와 각도로 설정하여 이동하기도 편하고...충전을 하고 벽걸이 또는 테이블 용으로 사용할 수 있어 너무 잘 활용하고 있어요.
-스탠드형이 아닌 접이식이라 내구성도 꼼꼼하게 살펴봤는데 역시 보만의 만듬새는 우수하더군요.
-일반적인 형태의 제품보다 확실하게 편의성이 뛰어나고 활용도가 높다는걸 참고하시면 될 것 같아요.</t>
+          <t>매우 만족스럽습니다. 다만 소음은 일반선풍기 쓰시던 분은 무시할만한 수준, 기존에 BLDC쓰시던 분은 유선모드에서는 시끄럽게 느끼실 수도. 저는 추천합니다.
+매우 만족스럽습니다. 다만 소음은 일반선풍기 쓰시던 분은 무시할만한 수준, 기존에 BLDC쓰시던 분은 유선모드에서는 시끄럽게 느끼실 수도. 저는 추천합니다.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1587,27 +1400,9 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>일반선풍기 찾아보다가 발견하고 구매했어요.작고 소음도 없는 편이라고 해서요.음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.저는
-일반선풍기 찾아보다가 발견하고 구매했어요.
-작고 소음도 없는 편이라고 해서요.
-음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ
-이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.
-저는 캠핑용이라 아니라 제 방에서 사용할꺼라..
-세기를 1정도하면 초미풍처럼 아주 조용할 줄 알았거든요.
-아무튼 부피는 작아도 겁나 바람이 센데다
-바람세기 정도가 10까지 있어요.
-그리고 회전하니 진짜 몸통까지 다 돌아가네요.
-후기보고 어떤 느낌인가했는데, 이런거군요.ㅎㅎㅎ
-디자인은 참 이쁘고 세련됐어요.
-보관도 컴팩트하게 할 수 있어서 좋기도하구요.
-안방 선풍기와 비교했더니 미니하고 귀엽기도 하구요.
-남동생이 캠핑 자주 다니는데 벌써 탐내하네요.ㅎㅎㅎ
-뭐, 개인적으로 좀 실망하긴했지만,
-작은 선풍기치고는 내구성도 괜찮은 것 같고
-전반적으로 좋은 부분이 많아서 만족하는 구매에요.
-사은품으로 주신 미니선풍기도 감사해요.
-얘도 작은게 바람세기가 겁나 세네요.
-오래오래 잘 사용해볼께요^^</t>
+          <t>선풍기가 작은데도 바람세기도 좋고 휴대용으로 사용가능하다는것도 너무 편리하게 생각되네요.생각보다 바람소리도 덜하는것 같아서 좋아요
+선풍기가 작은데도 바람세기도 좋고 휴대용으로 사용가능하다는것도 너무 편리하게 생각되네요.
+생각보다 바람소리도 덜하는것 같아서 좋아요</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1619,10 +1414,8 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8
-일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음
-소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8단까지 안해놔도 됏을것같은?왜냐면1단이 쓰고싶으면 8단까지 갓다가 1단와야하는게 좀 번거로워요 아그리고 제꺼 혹시 불량인가요?충전중에 빨간불이 들어오고 완충시 초록불이라고햇는데 따로 색도없어요 근데 배터리칸은 다차잇길래 배터리잇는지알앗더니 얼마쓰다 꺼져버리네요
-배터리가 얼마나 남앗는지도 알수가없어여 배터리칸이 계속 만땅이에요ㅜㅜ 이거 왜이러는지 알수있을까요?상품은 넘 맘에들고 좋아요</t>
+          <t>상품 자체 매우만족하고쓰고있습니다 10만원이상 선풍기 살면서 처음써봤는데 굿!
+상품 자체 매우만족하고쓰고있습니다 10만원이상 선풍기 살면서 처음써봤는데 굿!</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1634,12 +1427,9 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱
-제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.
-보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱 맘에 드는 제품이에요.
-완전히 접혀져서 전용 파우치에 담아두면 쓰지 않을때나 캠핑 갈때 찰떡이구요, 높이 조절에 회전까지 되고..
-리모컨 있고.. 바람 세기 조절까지 쓰기가 너무 편해요!
-무엇보다 무선이라서 이 방 저 방 필요할때마다 가볍게 옮겨다닐 수 있어서 완전 대대대 만족이에요!</t>
+          <t>아이와 함께 자는 침실 선풍기를 알아보다가 준비했어요~자연의 바람과 함께 디테일 하나하나 고급스러워서 아주 대만족이에요!
+아이와 함께 자는 침실 선풍기를 알아보다가 준비했어요~
+자연의 바람과 함께 디테일 하나하나 고급스러워서 아주 대만족이에요!</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1651,9 +1441,9 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋
-캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~
-받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋구요. 8단계까지 바람세기도 선택할 수 있는데 강력한 바람에 소음은 없어서 집에서 아기선풍기로 활용해도 좋겠더라구요. 특히 저희집은 아이들이 많이 뛰고해서 전기선에 걸려 넘어질까봐 늘 불안했는데 걱정 싹 사라졌어요. 캠핑용 야외용으로도 가정용으로도 활용성이 뛰어난 진짜 좋은 선풍기를 만나니 올 여름 왠지 든든하네요!</t>
+          <t>완전 예쁘고 깔끔하고 시원하고 다해요더위를 많이 타서 손풍기용으로 들고다니려고 했는데 솔직히 그건 힘들겠어요 ㅋㅋ 캠핑갈때 잘 쓰이겠어요 추천해요
+완전 예쁘고 깔끔하고 시원하고 다해요
+더위를 많이 타서 손풍기용으로 들고다니려고 했는데 솔직히 그건 힘들겠어요 ㅋㅋ 캠핑갈때 잘 쓰이겠어요 추천해요</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1665,18 +1455,8 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>세상에!착착 접히는 선풍기는 처음 봤어요!군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요폴딩도 간편하고 각도 조절도 안정적이고무선 선풍기라 일반 유선 선풍기 보다모터가 약할 거
-세상에!
-착착 접히는 선풍기는 처음 봤어요!
-군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요
-폴딩도 간편하고 각도 조절도 안정적이고
-무선 선풍기라 일반 유선 선풍기 보다
-모터가 약할 거라 생각했는데 전혀 약하지 않아서 놀랐어요
-소음도 적고요!
-폴딩 후 파우치에 딱 넣어서 보관하면 되니
-자리차지도 하지 않고 너무 좋아요
-다음주 아이와 캠핑 가기로 약속했는데 슥 들고 가려고요^^
-참! 사은품으로 보내주신 핸디 선풍기도 진짜 대박이었어요</t>
+          <t>바람세기는 강한편인데 크기가 많이 작네요..아기 선풍기 글자를 못보고;;;;;;;;;
+바람세기는 강한편인데 크기가 많이 작네요..아기 선풍기 글자를 못보고;;;;;;;;;</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1688,12 +1468,8 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에
-받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다
-생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에 놀랐네요
-역시 써큘레이터와는 바람의 질이 틀리네요
-단하나 아쉬운것은 휴대용가방이 규격이 딱이라 리모컨과 충전잭을 함께넣으니 지퍼닫기가 힘들고 튀어나오네요
-이것도 원래넣는방식이 있는데 제가 모르고 막넣어서 그런진 모르겠습니다만 조금 아쉬웠습니다</t>
+          <t>사이즈 체크를 안해서 처음에 작아서 놀라긴 했지만 깔끔하고 맘에 들어요~
+사이즈 체크를 안해서 처음에 작아서 놀라긴 했지만 깔끔하고 맘에 들어요~</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1705,8 +1481,10 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서
-선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서 높낮이 조절도 가능하고, 손잡이가 있어서 벽에 걸어서 사용 가능하더라고요, 주방에서 음식냄새 빠르게 제거할 때랑, 에어컨 효율 높이기 위해 쓰기도 하고, 빨래 말릴 때도 쓰기 좋아요! 리모컨 있어서 편리하고~ 완충 해놓으면 무선으로도 6시간 연속 사용 가능하네요, 깔끔한 디자인이라서 더 예쁘고 마음에 쏙 들어요!</t>
+          <t>가볍고 사용법도 간단하네요기존에 있던 서큘레이터에 비하면소음도 작아요
+가볍고 사용법도 간단하네요
+기존에 있던 서큘레이터에 비하면
+소음도 작아요</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1718,12 +1496,9 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>이건 사셔야합니다. 일단 가벼워서 옮기기편하고 무선이 환상입니다! 밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요접어서 보관하면 부피
-이건 사셔야합니다.
-일단 가벼워서 옮기기편하고 무선이 환상입니다!
-밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요
-접어서 보관하면 부피도줄고 파우치도있고, 1~8단까지인데 강풍은 아니지만 세세하게 나뉘어있고 저는 2단이 좋더라구요. 옛날 무거운선풍기 쓰시는 어머니께도 주문해드렸습니다.
-저희집도 요거로 다 바꿀예정이어요</t>
+          <t>가볍고 아담해서 집안에서도 집밖에서도 사용하기 좋아요캠핑용으로 쓸 때도 높이 조절이 돼서 다른 캠핑 선풍기보다 활용도가 높을 것 같아서 하나 있으면 두루두루 잘 쓸 것 같아요
+가볍고 아담해서 집안에서도 집밖에서도 사용하기 좋아요
+캠핑용으로 쓸 때도 높이 조절이 돼서 다른 캠핑 선풍기보다 활용도가 높을 것 같아서 하나 있으면 두루두루 잘 쓸 것 같아요</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1735,15 +1510,8 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.굳이 8단까지 필요한가 싶어요. 2단에서
-집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.
-주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.
-굳이 8단까지 필요한가 싶어요. 2단에서 다시 1단으로 가려면 3단위로해서 8단까지 갔다가 1단으로 가야해요.
-1단 2단도 풍량의 차이가 없어요.
-충전 어댑터 꽂혀있을 때랑 선없을 때랑 풍속이 다릅니다.
-껐다가 켰을때 1단이 아니고 2단으로 시작해요.
-무게도 꽤 돼서 텐트에 걸어서 설치해도 될까 싶어요.
-등등해서 접을 수 있다는거 빼곤 별로예요.</t>
+          <t>무소음 무선 이라고해서 샀는데 소음이 있네요. 흠. 원래 이정도 소음은 있는건가요? 너무 기대했는지 별로 맘에 그냥 그래요.
+무소음 무선 이라고해서 샀는데 소음이 있네요. 흠. 원래 이정도 소음은 있는건가요? 너무 기대했는지 별로 맘에 그냥 그래요.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1755,14 +1523,9 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ뭐 물건은 말해 뭐합니까 ㅎㅎㅎ 유선/무선 겸용으로 사용가능하구바람단계 8단계에 그냥 하
-그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ
-뭐 물건은 말해 뭐합니까 ㅎㅎㅎ
-유선/무선 겸용으로 사용가능하구
-바람단계 8단계에 그냥 하나같이 완벽 합니당
-다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 후회 하나도 안해요 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다
-근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 더 맘에들어용 &gt;_&lt; 포장도 잘되서 왔고 하자도 없고 리모컨도 있구 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요
-주변에서 누군가가 캠핑용 서큘레이터 찾는다하면 추천할거가테용 ㅎㅎ 많이파세요!!</t>
+          <t>가볍고 이동성 좋아요다만 리모컨 거치대가 없어 약 간 불편해요
+가볍고 이동성 좋아요
+다만 리모컨 거치대가 없어 약 간 불편해요</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1774,13 +1537,8 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>캠핑장에서도 집에서도 정말 유용한 제품입니다. 무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해
-캠핑장에서도 집에서도 정말 유용한 제품입니다.
-무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.
-집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해요.
-소음이 거의 느껴지지 않을만큼 조용한데 바람은 강력해서 이거 사고 원래 집에있던 유선선풍기는 아예 쓰질 않네요;;
-멀티탭 연결해서 길게 선풍기 선이 나와있는거 정말 보기 싫었는데 마음의 평안을 찾았어요
-무조건 강추에요!</t>
+          <t>소음도 적고, 접이식이라 보관하기 편하고, 디자인도 작고 이쁨 강추
+소음도 적고, 접이식이라 보관하기 편하고, 디자인도 작고 이쁨 강추</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1792,11 +1550,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다! 리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!크
-다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다!
-리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!
-크기가 작을까봐 걱정했는데 딱 적당하면서 완전히 접혀서 보관이나 다른 장소로 들고다니기도 좋을거같습니당~
-잘 쓸게요!!</t>
+          <t>여러제품 비교하다가 구매했습니다.높낮이조절,배터리양 표시,리모컨조절,무선제가 생각했던 모든 기능이 다 있습니다.작고 귀엽네요!
+여러제품 비교하다가 구매했습니다.
+높낮이조절,배터리양 표시,리모컨조절,무선
+제가 생각했던 모든 기능이 다 있습니다.
+작고 귀엽네요!</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1808,8 +1566,9 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약
-생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약강만 반복되네요 조용하다 시끄러워지고 반복..1단도 꽤 쎈 바람이 나오는데 1단보다 약한 바람이 한단계 더있었으면 좋았을텐데.. 유선 1단이 너무 쎄고 소음이 좀있네요 바닥 생활을 해서 가슴 아래로 바람이 갈수있는 선풍기는 이런류의 선풍기가 유일한듯 싶네요 그래서 구입했습니다.</t>
+          <t>고르고 골라 모든 기능의 집결체팬이 생각보다 작지만 만족합니다!!
+고르고 골라 모든 기능의 집결체
+팬이 생각보다 작지만 만족합니다!!</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1821,13 +1580,8 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에
-더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.
-집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요.
-보만 제품의 만족도가 큰데 이번에 구입한 선풍기도 너무 이쁘고, 가볍고!
-소음이 적은데다 착착 접이는 무선선풍기라 활용도가 엄청 좋네요~
-조용한데 아주 시원해요.
-다음주에 캠핑 갈 계획이라 보관 가방에 넣어 캠핑장에 가지고 가려구요.</t>
+          <t>작지만 성능 좋구요 소음 만족,일단 부피가 작고 보관하기 좋아요
+작지만 성능 좋구요 소음 만족,일단 부피가 작고 보관하기 좋아요</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1839,11 +1593,8 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.주방아일랜드위에 올려놓으시고 잘 사
-저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.
-집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.
-주방아일랜드위에 올려놓으시고 잘 사용하고 계십니다.
-가벼워서 좋고 충전도편하고 어디든 들고다닐수있고 보관용이하고.. 세상좋은 보만이어요</t>
+          <t>디자인 좋고 리모컨이 본체에 자석으로 붙어서 너무 편리하네요^^
+디자인 좋고 리모컨이 본체에 자석으로 붙어서 너무 편리하네요^^</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1855,18 +1606,9 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>잘 사용하고 있어요.생각했던 것보다 소음이 좀 있기는한데,바람세기도 8단계나 되고 이동하기도 편해서만족스러운 구매였던 것 같아요.아! 그리고 충전기 연결해서 사용하면 바람세기가같은
-잘 사용하고 있어요.
-생각했던 것보다 소음이 좀 있기는한데,
-바람세기도 8단계나 되고 이동하기도 편해서
-만족스러운 구매였던 것 같아요.
-아! 그리고 충전기 연결해서 사용하면 바람세기가
-같은 1인데도 더 세구요.
-충전 다하고 코드 빼고 사용하면 좀 약해요.
-저는 약한게 좋아서 충전 다하고 사용중이에요.
-그런데 오랜만에 왔더니 가격이 저렴해졌네요.
-한달 잘 사용중이지만 아쉽네요.ㅎㅎㅎ
-아무튼 오래 잘 사용할께요~!</t>
+          <t>무선이라 정말 편하네요ㅡ더군다나 보관방법이 획기적입니다^^
+무선이라 정말 편하네요ㅡ
+더군다나 보관방법이 획기적입니다^^</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1878,10 +1620,8 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람
-정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.
-리모콘까지 되어서 편리하고요. 9단까지 바람이 조절되고 타이머는 9시간 까지 설정됩니다. 자연바람까지 설정되네요. 회전도 됩니다. ㄷㄷ
-더더 대박은 충전하는동안도 사용이 가능해서 집에서는 유선 선풍기로 캠핑가서는 무선으로 여름내내 잘 사용할것 같습니다.</t>
+          <t>실제 받아보고 나니 일반 선풍기 보다 사이즈는 작습니다. 다만 너무 이뻐요. 정말 이뻐요. 아! 그리고 선풍기 회전할때 날개부분이 돌아가는게 아닌 몸통 전체가 회전해요 ㅋㅋㅋ
+실제 받아보고 나니 일반 선풍기 보다 사이즈는 작습니다. 다만 너무 이뻐요. 정말 이뻐요. 아! 그리고 선풍기 회전할때 날개부분이 돌아가는게 아닌 몸통 전체가 회전해요 ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1893,9 +1633,8 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다아이들
-사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다
-아이들 방에 놓아도 좋을것 같아서 하나더 구입하고 싶어요</t>
+          <t>무선이라 편하게 들고 필요한곳에서 쓸 수 있어서 너무 좋아요 무선 선풍기 처음인데 신세계네요
+무선이라 편하게 들고 필요한곳에서 쓸 수 있어서 너무 좋아요 무선 선풍기 처음인데 신세계네요</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1907,23 +1646,8 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>무선의 최대장점 어디에서든 사용가능해서 구매했어요야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요사이즈는 너무 크지도 작지도않게 적당하고
-무선의 최대장점 어디에서든 사용가능해서 구매했어요
-야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요
-사이즈는 너무 크지도 작지도않게 적당하고 무게감이 살짝있지만 차에 싣고다니면 문제없을정도 입니다
-사실 몇시간씩 들고 이동할거 아니면 무게감은 상관없을듯요
-선풍기 목 길이를 짧게하면 귀여운데 길게하면 나름 포스 뿜뿜! 목 길게하면 쇼파에앉아 사용할수있을정도로 목이 늘어나요 심지어 머리도 각도조절되니 어느 위치에서든 원하는 위치로 바람이 슝슝~~
-무선에 리모콘까지~ 귀차니즘들에게 딱인제품이예요
-그리고 소음이 심한가 여러번 작동시켜봤는데 소음걱정은 안하셔도 될듯합니다 일반 선풍기 돌아가는 소리정도 납니다
-또한 충전중에도 작동이되서 콘센트가 있는곳이면 코드 꽂아사용하니 활용도 굿 👍
-무선치고 힘도좋아 시원하네요
-단계조절이 1단부터 8단까지니 취향껏 단계조절 하시며 쓰시면 좋을듯합니다
-기본 전원누르면 2단계가 세팅되는데 집안에선 2단계도 시원한느낌이예요
-에어컨과함께 사용시 1단계도 충분하네요
-한번충전에(풀 4시간충전) 6시간사용이니 전 만족합니다
-사실 야구장갈때 쓰려고 산거라 야구관람하며 사용하기엔 충분한 시간인듯해서 이번주 금요일 이 아이와함께 야구장 출동합니다ㅋ
-덕분에 시원한 관람될것같네요
-감사히 잘쓰겠습니다</t>
+          <t>선풍기 조금 작긴한데 조용해서 좋네요 휴대가능하고 이뻐요
+선풍기 조금 작긴한데 조용해서 좋네요 휴대가능하고 이뻐요</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1935,12 +1659,9 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.무선으로 자유롭게 움직이며 사용할 수 있
-세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.
-무선으로 자유롭게 움직이며 사용할 수 있고 피크닉, 캠핑용으로 사용할 수 있는 점이 마음에 듭니다. 집이 공간이 작은 편인데 사용하지 않을 때는 접어서 보관을 할 수 있어 여름이 지난 후에 정리를 할 때도 좋을 것 같아요.
-공간이 작아서 두개를 사용할 필요는 없는데 사용하기 편한 크기와 각도로 설정하여 이동하기도 편하고...충전을 하고 벽걸이 또는 테이블 용으로 사용할 수 있어 너무 잘 활용하고 있어요.
-스탠드형이 아닌 접이식이라 내구성도 꼼꼼하게 살펴봤는데 역시 보만의 만듬새는 우수하더군요.
-일반적인 형태의 제품보다 확실하게 편의성이 뛰어나고 활용도가 높다는걸 참고하시면 될 것 같아요.</t>
+          <t>작고 무선이고 너무 디자인도 좋네요캠핑갈때도 딱이겠어요!!
+작고 무선이고 너무 디자인도 좋네요
+캠핑갈때도 딱이겠어요!!</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1952,27 +1673,8 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>일반선풍기 찾아보다가 발견하고 구매했어요.작고 소음도 없는 편이라고 해서요.음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.저는
-일반선풍기 찾아보다가 발견하고 구매했어요.
-작고 소음도 없는 편이라고 해서요.
-음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ
-이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.
-저는 캠핑용이라 아니라 제 방에서 사용할꺼라..
-세기를 1정도하면 초미풍처럼 아주 조용할 줄 알았거든요.
-아무튼 부피는 작아도 겁나 바람이 센데다
-바람세기 정도가 10까지 있어요.
-그리고 회전하니 진짜 몸통까지 다 돌아가네요.
-후기보고 어떤 느낌인가했는데, 이런거군요.ㅎㅎㅎ
-디자인은 참 이쁘고 세련됐어요.
-보관도 컴팩트하게 할 수 있어서 좋기도하구요.
-안방 선풍기와 비교했더니 미니하고 귀엽기도 하구요.
-남동생이 캠핑 자주 다니는데 벌써 탐내하네요.ㅎㅎㅎ
-뭐, 개인적으로 좀 실망하긴했지만,
-작은 선풍기치고는 내구성도 괜찮은 것 같고
-전반적으로 좋은 부분이 많아서 만족하는 구매에요.
-사은품으로 주신 미니선풍기도 감사해요.
-얘도 작은게 바람세기가 겁나 세네요.
-오래오래 잘 사용해볼께요^^</t>
+          <t>일단 휴대도 간편하고 바람도 세서 좋아요. 아주 만족합니다
+일단 휴대도 간편하고 바람도 세서 좋아요. 아주 만족합니다</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1984,10 +1686,8 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8
-일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음
-소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8단까지 안해놔도 됏을것같은?왜냐면1단이 쓰고싶으면 8단까지 갓다가 1단와야하는게 좀 번거로워요 아그리고 제꺼 혹시 불량인가요?충전중에 빨간불이 들어오고 완충시 초록불이라고햇는데 따로 색도없어요 근데 배터리칸은 다차잇길래 배터리잇는지알앗더니 얼마쓰다 꺼져버리네요
-배터리가 얼마나 남앗는지도 알수가없어여 배터리칸이 계속 만땅이에요ㅜㅜ 이거 왜이러는지 알수있을까요?상품은 넘 맘에들고 좋아요</t>
+          <t>이쁘고 가볍고 무선되고 조용하고 모든 게 다 좋은거같아요!
+이쁘고 가볍고 무선되고 조용하고 모든 게 다 좋은거같아요!</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1999,12 +1699,9 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱
-제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.
-보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱 맘에 드는 제품이에요.
-완전히 접혀져서 전용 파우치에 담아두면 쓰지 않을때나 캠핑 갈때 찰떡이구요, 높이 조절에 회전까지 되고..
-리모컨 있고.. 바람 세기 조절까지 쓰기가 너무 편해요!
-무엇보다 무선이라서 이 방 저 방 필요할때마다 가볍게 옮겨다닐 수 있어서 완전 대대대 만족이에요!</t>
+          <t>생각보다 작은데 시원하고 간편하고~회전으로 해놔도 시원해요ㅎㅎ고민끝에 주문했는데 100프로 만족합니다
+생각보다 작은데 시원하고 간편하고~
+회전으로 해놔도 시원해요ㅎㅎ고민끝에 주문했는데 100프로 만족합니다</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2016,9 +1713,9 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋
-캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~
-받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋구요. 8단계까지 바람세기도 선택할 수 있는데 강력한 바람에 소음은 없어서 집에서 아기선풍기로 활용해도 좋겠더라구요. 특히 저희집은 아이들이 많이 뛰고해서 전기선에 걸려 넘어질까봐 늘 불안했는데 걱정 싹 사라졌어요. 캠핑용 야외용으로도 가정용으로도 활용성이 뛰어난 진짜 좋은 선풍기를 만나니 올 여름 왠지 든든하네요!</t>
+          <t>가정용으로는 조금 작지만 아이 방에 놓긴 괜찮아요바람도 쌔고 좋네요 사은품도 너무 조아요
+가정용으로는 조금 작지만 아이 방에 놓긴 괜찮아요
+바람도 쌔고 좋네요 사은품도 너무 조아요</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2030,18 +1727,8 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>세상에!착착 접히는 선풍기는 처음 봤어요!군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요폴딩도 간편하고 각도 조절도 안정적이고무선 선풍기라 일반 유선 선풍기 보다모터가 약할 거
-세상에!
-착착 접히는 선풍기는 처음 봤어요!
-군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요
-폴딩도 간편하고 각도 조절도 안정적이고
-무선 선풍기라 일반 유선 선풍기 보다
-모터가 약할 거라 생각했는데 전혀 약하지 않아서 놀랐어요
-소음도 적고요!
-폴딩 후 파우치에 딱 넣어서 보관하면 되니
-자리차지도 하지 않고 너무 좋아요
-다음주 아이와 캠핑 가기로 약속했는데 슥 들고 가려고요^^
-참! 사은품으로 보내주신 핸디 선풍기도 진짜 대박이었어요</t>
+          <t>접히는것 편리하고 무선이라 좋고 바람세기도 적당합니다!
+접히는것 편리하고 무선이라 좋고 바람세기도 적당합니다!</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2053,12 +1740,9 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에
-받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다
-생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에 놀랐네요
-역시 써큘레이터와는 바람의 질이 틀리네요
-단하나 아쉬운것은 휴대용가방이 규격이 딱이라 리모컨과 충전잭을 함께넣으니 지퍼닫기가 힘들고 튀어나오네요
-이것도 원래넣는방식이 있는데 제가 모르고 막넣어서 그런진 모르겠습니다만 조금 아쉬웠습니다</t>
+          <t>아주 편리하게 사용합니다.그런데 약간 소음이 크긴해요.
+아주 편리하게 사용합니다.
+그런데 약간 소음이 크긴해요.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2070,8 +1754,8 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서
-선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서 높낮이 조절도 가능하고, 손잡이가 있어서 벽에 걸어서 사용 가능하더라고요, 주방에서 음식냄새 빠르게 제거할 때랑, 에어컨 효율 높이기 위해 쓰기도 하고, 빨래 말릴 때도 쓰기 좋아요! 리모컨 있어서 편리하고~ 완충 해놓으면 무선으로도 6시간 연속 사용 가능하네요, 깔끔한 디자인이라서 더 예쁘고 마음에 쏙 들어요!</t>
+          <t>슬림하지만 시원해요
+팬의 크기가 작아 시원하지 않을까 걱정했는데 8단계까지라 풍량 조절도 잘되고 시원하네요. 무선형에 리모컨까지 강추합니다.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2083,12 +1767,8 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>이건 사셔야합니다. 일단 가벼워서 옮기기편하고 무선이 환상입니다! 밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요접어서 보관하면 부피
-이건 사셔야합니다.
-일단 가벼워서 옮기기편하고 무선이 환상입니다!
-밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요
-접어서 보관하면 부피도줄고 파우치도있고, 1~8단까지인데 강풍은 아니지만 세세하게 나뉘어있고 저는 2단이 좋더라구요. 옛날 무거운선풍기 쓰시는 어머니께도 주문해드렸습니다.
-저희집도 요거로 다 바꿀예정이어요</t>
+          <t>보관하기에도 아주 간편하고 컴팩트한 사이즈만 바람은 왠만한 사이즈의 선풍기와 견주어봐도 밀리지 않아요~!
+보관하기에도 아주 간편하고 컴팩트한 사이즈만 바람은 왠만한 사이즈의 선풍기와 견주어봐도 밀리지 않아요~!</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2100,15 +1780,8 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.굳이 8단까지 필요한가 싶어요. 2단에서
-집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.
-주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.
-굳이 8단까지 필요한가 싶어요. 2단에서 다시 1단으로 가려면 3단위로해서 8단까지 갔다가 1단으로 가야해요.
-1단 2단도 풍량의 차이가 없어요.
-충전 어댑터 꽂혀있을 때랑 선없을 때랑 풍속이 다릅니다.
-껐다가 켰을때 1단이 아니고 2단으로 시작해요.
-무게도 꽤 돼서 텐트에 걸어서 설치해도 될까 싶어요.
-등등해서 접을 수 있다는거 빼곤 별로예요.</t>
+          <t>귀엽고 앙증맞고, 휴대성이 좋아 휴가갈때 같이 갑니다~
+귀엽고 앙증맞고, 휴대성이 좋아 휴가갈때 같이 갑니다~</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2120,14 +1793,8 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ뭐 물건은 말해 뭐합니까 ㅎㅎㅎ 유선/무선 겸용으로 사용가능하구바람단계 8단계에 그냥 하
-그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ
-뭐 물건은 말해 뭐합니까 ㅎㅎㅎ
-유선/무선 겸용으로 사용가능하구
-바람단계 8단계에 그냥 하나같이 완벽 합니당
-다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 후회 하나도 안해요 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다
-근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 더 맘에들어용 &gt;_&lt; 포장도 잘되서 왔고 하자도 없고 리모컨도 있구 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요
-주변에서 누군가가 캠핑용 서큘레이터 찾는다하면 추천할거가테용 ㅎㅎ 많이파세요!!</t>
+          <t>침대에서 사용하기에 낮게 높이 조절 되는게 좋습니다.
+침대에서 사용하기에 낮게 높이 조절 되는게 좋습니다.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2139,13 +1806,8 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>캠핑장에서도 집에서도 정말 유용한 제품입니다. 무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해
-캠핑장에서도 집에서도 정말 유용한 제품입니다.
-무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.
-집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해요.
-소음이 거의 느껴지지 않을만큼 조용한데 바람은 강력해서 이거 사고 원래 집에있던 유선선풍기는 아예 쓰질 않네요;;
-멀티탭 연결해서 길게 선풍기 선이 나와있는거 정말 보기 싫었는데 마음의 평안을 찾았어요
-무조건 강추에요!</t>
+          <t>빠른배송 잘 받았습니다. 제품도 이상없이 작동하네요!
+빠른배송 잘 받았습니다. 제품도 이상없이 작동하네요!</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2157,11 +1819,8 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다! 리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!크
-다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다!
-리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!
-크기가 작을까봐 걱정했는데 딱 적당하면서 완전히 접혀서 보관이나 다른 장소로 들고다니기도 좋을거같습니당~
-잘 쓸게요!!</t>
+          <t>접이식이라 편리하고 무선이라 좋아요~ 원룸에서 사용하려고 구매했는데 작고 귀엽네요~
+접이식이라 편리하고 무선이라 좋아요~ 원룸에서 사용하려고 구매했는데 작고 귀엽네요~</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2173,8 +1832,9 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약
-생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약강만 반복되네요 조용하다 시끄러워지고 반복..1단도 꽤 쎈 바람이 나오는데 1단보다 약한 바람이 한단계 더있었으면 좋았을텐데.. 유선 1단이 너무 쎄고 소음이 좀있네요 바닥 생활을 해서 가슴 아래로 바람이 갈수있는 선풍기는 이런류의 선풍기가 유일한듯 싶네요 그래서 구입했습니다.</t>
+          <t>캠핑가서 너무 잘쓰고 집에서도 매일 쓰는 중이에요!
+캠핑가서 너무 잘쓰고
+집에서도 매일 쓰는 중이에요!</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2186,13 +1846,8 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에
-더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.
-집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요.
-보만 제품의 만족도가 큰데 이번에 구입한 선풍기도 너무 이쁘고, 가볍고!
-소음이 적은데다 착착 접이는 무선선풍기라 활용도가 엄청 좋네요~
-조용한데 아주 시원해요.
-다음주에 캠핑 갈 계획이라 보관 가방에 넣어 캠핑장에 가지고 가려구요.</t>
+          <t>무선이라 휴대성도 좋고 풍량도 8단으로 시원하네요.
+무선이라 휴대성도 좋고 풍량도 8단으로 시원하네요.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2204,11 +1859,8 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.주방아일랜드위에 올려놓으시고 잘 사
-저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.
-집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.
-주방아일랜드위에 올려놓으시고 잘 사용하고 계십니다.
-가벼워서 좋고 충전도편하고 어디든 들고다닐수있고 보관용이하고.. 세상좋은 보만이어요</t>
+          <t>주방용으로 구입
+음식할때 더워서 무선.접이식으로 구매 시원합니다</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2220,18 +1872,8 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>잘 사용하고 있어요.생각했던 것보다 소음이 좀 있기는한데,바람세기도 8단계나 되고 이동하기도 편해서만족스러운 구매였던 것 같아요.아! 그리고 충전기 연결해서 사용하면 바람세기가같은
-잘 사용하고 있어요.
-생각했던 것보다 소음이 좀 있기는한데,
-바람세기도 8단계나 되고 이동하기도 편해서
-만족스러운 구매였던 것 같아요.
-아! 그리고 충전기 연결해서 사용하면 바람세기가
-같은 1인데도 더 세구요.
-충전 다하고 코드 빼고 사용하면 좀 약해요.
-저는 약한게 좋아서 충전 다하고 사용중이에요.
-그런데 오랜만에 왔더니 가격이 저렴해졌네요.
-한달 잘 사용중이지만 아쉽네요.ㅎㅎㅎ
-아무튼 오래 잘 사용할께요~!</t>
+          <t>가볍고 좋네요 아이가 들고다니면서
+가볍고 좋네요 아이가 들고다니면서 쓰고 있어요</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2243,10 +1885,8 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람
-정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.
-리모콘까지 되어서 편리하고요. 9단까지 바람이 조절되고 타이머는 9시간 까지 설정됩니다. 자연바람까지 설정되네요. 회전도 됩니다. ㄷㄷ
-더더 대박은 충전하는동안도 사용이 가능해서 집에서는 유선 선풍기로 캠핑가서는 무선으로 여름내내 잘 사용할것 같습니다.</t>
+          <t>휴대가 편해서 차박할때 많이 사용하고 있어요.
+휴대가 편해서 차박할때 많이 사용하고 있어요.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2258,9 +1898,8 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다아이들
-사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다
-아이들 방에 놓아도 좋을것 같아서 하나더 구입하고 싶어요</t>
+          <t>생각보다 충전이 오래가서 좋고 편리합니다!!
+생각보다 충전이 오래가서 좋고 편리합니다!!</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2272,23 +1911,8 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>무선의 최대장점 어디에서든 사용가능해서 구매했어요야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요사이즈는 너무 크지도 작지도않게 적당하고
-무선의 최대장점 어디에서든 사용가능해서 구매했어요
-야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요
-사이즈는 너무 크지도 작지도않게 적당하고 무게감이 살짝있지만 차에 싣고다니면 문제없을정도 입니다
-사실 몇시간씩 들고 이동할거 아니면 무게감은 상관없을듯요
-선풍기 목 길이를 짧게하면 귀여운데 길게하면 나름 포스 뿜뿜! 목 길게하면 쇼파에앉아 사용할수있을정도로 목이 늘어나요 심지어 머리도 각도조절되니 어느 위치에서든 원하는 위치로 바람이 슝슝~~
-무선에 리모콘까지~ 귀차니즘들에게 딱인제품이예요
-그리고 소음이 심한가 여러번 작동시켜봤는데 소음걱정은 안하셔도 될듯합니다 일반 선풍기 돌아가는 소리정도 납니다
-또한 충전중에도 작동이되서 콘센트가 있는곳이면 코드 꽂아사용하니 활용도 굿 👍
-무선치고 힘도좋아 시원하네요
-단계조절이 1단부터 8단까지니 취향껏 단계조절 하시며 쓰시면 좋을듯합니다
-기본 전원누르면 2단계가 세팅되는데 집안에선 2단계도 시원한느낌이예요
-에어컨과함께 사용시 1단계도 충분하네요
-한번충전에(풀 4시간충전) 6시간사용이니 전 만족합니다
-사실 야구장갈때 쓰려고 산거라 야구관람하며 사용하기엔 충분한 시간인듯해서 이번주 금요일 이 아이와함께 야구장 출동합니다ㅋ
-덕분에 시원한 관람될것같네요
-감사히 잘쓰겠습니다</t>
+          <t>저소음은 절대 아닙니다. 매우 시끄러워요.
+저소음은 절대 아닙니다. 매우 시끄러워요.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2300,12 +1924,8 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.무선으로 자유롭게 움직이며 사용할 수 있
-세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.
-무선으로 자유롭게 움직이며 사용할 수 있고 피크닉, 캠핑용으로 사용할 수 있는 점이 마음에 듭니다. 집이 공간이 작은 편인데 사용하지 않을 때는 접어서 보관을 할 수 있어 여름이 지난 후에 정리를 할 때도 좋을 것 같아요.
-공간이 작아서 두개를 사용할 필요는 없는데 사용하기 편한 크기와 각도로 설정하여 이동하기도 편하고...충전을 하고 벽걸이 또는 테이블 용으로 사용할 수 있어 너무 잘 활용하고 있어요.
-스탠드형이 아닌 접이식이라 내구성도 꼼꼼하게 살펴봤는데 역시 보만의 만듬새는 우수하더군요.
-일반적인 형태의 제품보다 확실하게 편의성이 뛰어나고 활용도가 높다는걸 참고하시면 될 것 같아요.</t>
+          <t>좋습니다. 튼튼하고 성능좋고 너무 편해요
+좋습니다. 튼튼하고 성능좋고 너무 편해요</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2317,27 +1937,8 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>일반선풍기 찾아보다가 발견하고 구매했어요.작고 소음도 없는 편이라고 해서요.음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.저는
-일반선풍기 찾아보다가 발견하고 구매했어요.
-작고 소음도 없는 편이라고 해서요.
-음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ
-이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.
-저는 캠핑용이라 아니라 제 방에서 사용할꺼라..
-세기를 1정도하면 초미풍처럼 아주 조용할 줄 알았거든요.
-아무튼 부피는 작아도 겁나 바람이 센데다
-바람세기 정도가 10까지 있어요.
-그리고 회전하니 진짜 몸통까지 다 돌아가네요.
-후기보고 어떤 느낌인가했는데, 이런거군요.ㅎㅎㅎ
-디자인은 참 이쁘고 세련됐어요.
-보관도 컴팩트하게 할 수 있어서 좋기도하구요.
-안방 선풍기와 비교했더니 미니하고 귀엽기도 하구요.
-남동생이 캠핑 자주 다니는데 벌써 탐내하네요.ㅎㅎㅎ
-뭐, 개인적으로 좀 실망하긴했지만,
-작은 선풍기치고는 내구성도 괜찮은 것 같고
-전반적으로 좋은 부분이 많아서 만족하는 구매에요.
-사은품으로 주신 미니선풍기도 감사해요.
-얘도 작은게 바람세기가 겁나 세네요.
-오래오래 잘 사용해볼께요^^</t>
+          <t>포장부터 상품성까지 모두 마음에 들어요
+포장부터 상품성까지 모두 마음에 들어요</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2349,10 +1950,8 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8
-일단 너무이뻐요 ㅋㅋ글고 모양이 자유자재로 할수잇으니편해요 목을 3단뺄스도잇고 아예다넣고 팬만꺽어서 사용할수도잇구요 좋음
-소음도 적어요 근데 한5단에서 8단은 거의 똑같이서 굳이 8단까지 안해놔도 됏을것같은?왜냐면1단이 쓰고싶으면 8단까지 갓다가 1단와야하는게 좀 번거로워요 아그리고 제꺼 혹시 불량인가요?충전중에 빨간불이 들어오고 완충시 초록불이라고햇는데 따로 색도없어요 근데 배터리칸은 다차잇길래 배터리잇는지알앗더니 얼마쓰다 꺼져버리네요
-배터리가 얼마나 남앗는지도 알수가없어여 배터리칸이 계속 만땅이에요ㅜㅜ 이거 왜이러는지 알수있을까요?상품은 넘 맘에들고 좋아요</t>
+          <t>전선이 없고 이동이 자유로워 너무좋네요
+전선이 없고 이동이 자유로워 너무좋네요</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2364,12 +1963,8 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱
-제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.
-보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱 맘에 드는 제품이에요.
-완전히 접혀져서 전용 파우치에 담아두면 쓰지 않을때나 캠핑 갈때 찰떡이구요, 높이 조절에 회전까지 되고..
-리모컨 있고.. 바람 세기 조절까지 쓰기가 너무 편해요!
-무엇보다 무선이라서 이 방 저 방 필요할때마다 가볍게 옮겨다닐 수 있어서 완전 대대대 만족이에요!</t>
+          <t>가볍고 무선으로 쓸 수 있어서 좋습니다
+가볍고 무선으로 쓸 수 있어서 좋습니다</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2381,254 +1976,407 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋
-캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~
-받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋구요. 8단계까지 바람세기도 선택할 수 있는데 강력한 바람에 소음은 없어서 집에서 아기선풍기로 활용해도 좋겠더라구요. 특히 저희집은 아이들이 많이 뛰고해서 전기선에 걸려 넘어질까봐 늘 불안했는데 걱정 싹 사라졌어요. 캠핑용 야외용으로도 가정용으로도 활용성이 뛰어난 진짜 좋은 선풍기를 만나니 올 여름 왠지 든든하네요!</t>
+          <t>가볍고 보관도 용이하고 마음에 듭니다.
+가볍고 보관도 용이하고 마음에 듭니다.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>평점5</t>
+          <t>평점2</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>세상에!착착 접히는 선풍기는 처음 봤어요!군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요폴딩도 간편하고 각도 조절도 안정적이고무선 선풍기라 일반 유선 선풍기 보다모터가 약할 거
-세상에!
-착착 접히는 선풍기는 처음 봤어요!
-군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요
-폴딩도 간편하고 각도 조절도 안정적이고
-무선 선풍기라 일반 유선 선풍기 보다
-모터가 약할 거라 생각했는데 전혀 약하지 않아서 놀랐어요
-소음도 적고요!
-폴딩 후 파우치에 딱 넣어서 보관하면 되니
-자리차지도 하지 않고 너무 좋아요
-다음주 아이와 캠핑 가기로 약속했는데 슥 들고 가려고요^^
-참! 사은품으로 보내주신 핸디 선풍기도 진짜 대박이었어요</t>
+          <t>가볍고 바람세기도 딱 적당하고 좋아요
+가볍고 바람세기도 딱 적당하고 좋아요</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>평점5</t>
+          <t>평점2</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에
-받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다
-생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에 놀랐네요
-역시 써큘레이터와는 바람의 질이 틀리네요
-단하나 아쉬운것은 휴대용가방이 규격이 딱이라 리모컨과 충전잭을 함께넣으니 지퍼닫기가 힘들고 튀어나오네요
-이것도 원래넣는방식이 있는데 제가 모르고 막넣어서 그런진 모르겠습니다만 조금 아쉬웠습니다</t>
+          <t>휴대하기 편리하고 성능도 좋습니다~!
+휴대하기 편리하고 성능도 좋습니다~!</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>평점5</t>
+          <t>평점2</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서
-선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서 높낮이 조절도 가능하고, 손잡이가 있어서 벽에 걸어서 사용 가능하더라고요, 주방에서 음식냄새 빠르게 제거할 때랑, 에어컨 효율 높이기 위해 쓰기도 하고, 빨래 말릴 때도 쓰기 좋아요! 리모컨 있어서 편리하고~ 완충 해놓으면 무선으로도 6시간 연속 사용 가능하네요, 깔끔한 디자인이라서 더 예쁘고 마음에 쏙 들어요!</t>
+          <t>바람도세고수납이 간편해서 엄지척^^
+바람도세고수납이 간편해서 엄지척^^</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>평점5</t>
+          <t>평점2</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>이건 사셔야합니다. 일단 가벼워서 옮기기편하고 무선이 환상입니다! 밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요접어서 보관하면 부피
-이건 사셔야합니다.
-일단 가벼워서 옮기기편하고 무선이 환상입니다!
-밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요
-접어서 보관하면 부피도줄고 파우치도있고, 1~8단까지인데 강풍은 아니지만 세세하게 나뉘어있고 저는 2단이 좋더라구요. 옛날 무거운선풍기 쓰시는 어머니께도 주문해드렸습니다.
-저희집도 요거로 다 바꿀예정이어요</t>
+          <t>잘돌아가네요 접히는것도 좋습니다
+잘돌아가네요 접히는것도 좋습니다</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>평점5</t>
+          <t>평점2</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.굳이 8단까지 필요한가 싶어요. 2단에서
-집도 좁고 다른 선풍기도 사용하고 있어서 서브 선풍기로 보관면에서 구매했어요.
-주관적인 사용평은 바람이 부드럽진 않아요. 1단으로 사용해도.
-굳이 8단까지 필요한가 싶어요. 2단에서 다시 1단으로 가려면 3단위로해서 8단까지 갔다가 1단으로 가야해요.
-1단 2단도 풍량의 차이가 없어요.
-충전 어댑터 꽂혀있을 때랑 선없을 때랑 풍속이 다릅니다.
-껐다가 켰을때 1단이 아니고 2단으로 시작해요.
-무게도 꽤 돼서 텐트에 걸어서 설치해도 될까 싶어요.
-등등해서 접을 수 있다는거 빼곤 별로예요.</t>
+          <t>배송도 빠르고 저렴하게 잘삿어요
+배송도 빠르고 저렴하게 잘삿어요</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>평점5</t>
+          <t>평점2</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ뭐 물건은 말해 뭐합니까 ㅎㅎㅎ 유선/무선 겸용으로 사용가능하구바람단계 8단계에 그냥 하
-그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ
-뭐 물건은 말해 뭐합니까 ㅎㅎㅎ
-유선/무선 겸용으로 사용가능하구
-바람단계 8단계에 그냥 하나같이 완벽 합니당
-다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 후회 하나도 안해요 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다
-근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 더 맘에들어용 &gt;_&lt; 포장도 잘되서 왔고 하자도 없고 리모컨도 있구 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요
-주변에서 누군가가 캠핑용 서큘레이터 찾는다하면 추천할거가테용 ㅎㅎ 많이파세요!!</t>
+          <t>배송도빠르고 상품도 만족합니다
+배송도빠르고 상품도 만족합니다</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>평점5</t>
+          <t>평점2</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>캠핑장에서도 집에서도 정말 유용한 제품입니다. 무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해
-캠핑장에서도 집에서도 정말 유용한 제품입니다.
-무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.
-집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해요.
-소음이 거의 느껴지지 않을만큼 조용한데 바람은 강력해서 이거 사고 원래 집에있던 유선선풍기는 아예 쓰질 않네요;;
-멀티탭 연결해서 길게 선풍기 선이 나와있는거 정말 보기 싫었는데 마음의 평안을 찾았어요
-무조건 강추에요!</t>
+          <t>배터리만가득있는데 꺼져요 ㅠㅠ
+배터리만가득있는데 꺼져요 ㅠㅠ</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>평점5</t>
+          <t>평점2</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다! 리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!크
-다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다!
-리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!
-크기가 작을까봐 걱정했는데 딱 적당하면서 완전히 접혀서 보관이나 다른 장소로 들고다니기도 좋을거같습니당~
-잘 쓸게요!!</t>
+          <t>생각보다 귀여워요 고장 안나길..
+생각보다 귀여워요 고장 안나길..</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>평점5</t>
+          <t>평점2</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약
-생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약강만 반복되네요 조용하다 시끄러워지고 반복..1단도 꽤 쎈 바람이 나오는데 1단보다 약한 바람이 한단계 더있었으면 좋았을텐데.. 유선 1단이 너무 쎄고 소음이 좀있네요 바닥 생활을 해서 가슴 아래로 바람이 갈수있는 선풍기는 이런류의 선풍기가 유일한듯 싶네요 그래서 구입했습니다.</t>
+          <t>가격 대비 성능이 너무 좋아요
+가격 대비 성능이 너무 좋아요</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>평점5</t>
+          <t>평점2</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에
-더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.
-집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요.
-보만 제품의 만족도가 큰데 이번에 구입한 선풍기도 너무 이쁘고, 가볍고!
-소음이 적은데다 착착 접이는 무선선풍기라 활용도가 엄청 좋네요~
-조용한데 아주 시원해요.
-다음주에 캠핑 갈 계획이라 보관 가방에 넣어 캠핑장에 가지고 가려구요.</t>
+          <t>작지만 강하고 소음 진짜적음
+작지만 강하고 소음 진짜적음</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>평점5</t>
+          <t>평점2</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.주방아일랜드위에 올려놓으시고 잘 사
-저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.
-집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.
-주방아일랜드위에 올려놓으시고 잘 사용하고 계십니다.
-가벼워서 좋고 충전도편하고 어디든 들고다닐수있고 보관용이하고.. 세상좋은 보만이어요</t>
+          <t>쓸수록 잘샀다고 생각합니다
+쓸수록 잘샀다고 생각합니다</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>평점5</t>
+          <t>평점2</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>잘 사용하고 있어요.생각했던 것보다 소음이 좀 있기는한데,바람세기도 8단계나 되고 이동하기도 편해서만족스러운 구매였던 것 같아요.아! 그리고 충전기 연결해서 사용하면 바람세기가같은
-잘 사용하고 있어요.
-생각했던 것보다 소음이 좀 있기는한데,
-바람세기도 8단계나 되고 이동하기도 편해서
-만족스러운 구매였던 것 같아요.
-아! 그리고 충전기 연결해서 사용하면 바람세기가
-같은 1인데도 더 세구요.
-충전 다하고 코드 빼고 사용하면 좀 약해요.
-저는 약한게 좋아서 충전 다하고 사용중이에요.
-그런데 오랜만에 왔더니 가격이 저렴해졌네요.
-한달 잘 사용중이지만 아쉽네요.ㅎㅎㅎ
-아무튼 오래 잘 사용할께요~!</t>
+          <t>휴대하기 편하고 시원합니다
+휴대하기 편하고 시원합니다</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>평점5</t>
+          <t>평점2</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람
-정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.
-리모콘까지 되어서 편리하고요. 9단까지 바람이 조절되고 타이머는 9시간 까지 설정됩니다. 자연바람까지 설정되네요. 회전도 됩니다. ㄷㄷ
-더더 대박은 충전하는동안도 사용이 가능해서 집에서는 유선 선풍기로 캠핑가서는 무선으로 여름내내 잘 사용할것 같습니다.</t>
+          <t>선이 좀 짧긴 하지만 좋아요
+선이 좀 짧긴 하지만 좋아요</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>평점5</t>
+          <t>평점2</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다아이들
-사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다
-아이들 방에 놓아도 좋을것 같아서 하나더 구입하고 싶어요</t>
+          <t>간편하게 이동하기 좋아요
+간편하게 이동하기 좋아요</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
+        <is>
+          <t>평점2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>만족하는편 나쁘지 않음
+만족하는편 나쁘지 않음</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>평점2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>작고 시원하고 이뻐요!!
+작고 시원하고 이뻐요!!</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>평점2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>상품 퀼리티 좋습니다^^
+상품 퀼리티 좋습니다^^</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>평점2</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>휴대성좋고 조용합니다
+휴대성좋고 조용합니다</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>평점2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>다음에 또 구매할게요
+다음에 또 구매할게요</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>평점2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>불량왔는데 연락이안됨 !!글달아도답글도 없고 이거 뭐 어쩌자는건지 한달이넘었는데도 연락이없다 ㅠㅠ
+불량왔는데 연락이안됨 !!글달아도답글도 없고 이거 뭐 어쩌자는건지 한달이넘었는데도 연락이없다 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>평점2</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>잘쓰겠습니다 좋아이
+잘쓰겠습니다 좋아이</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>작고 안방에서 사용하기 좋은데 소음이 작지는 않아밤이나 새벽에 작동 시 소음이 걸리네요...
+작고 안방에서 사용하기 좋은데 소음이 작지는 않아
+밤이나 새벽에 작동 시 소음이 걸리네요...</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>사이즈가 작은 편이고 작고 귀엽습니다보관도 용이하고 너무 간편해서 좋습니다
+사이즈가 작은 편이고 작고 귀엽습니다
+보관도 용이하고 너무 간편해서 좋습니다</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>배송도빠르고 제품도 너무좋네요. 귀여운 미니 휴대용 선풍기도 감사합니다^^
+배송도빠르고 제품도 너무좋네요. 귀여운 미니 휴대용 선풍기도 감사합니다^^</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>아주 잘 사용하고 있써요 편하고 일할때 옮겨 사하기 정말 편하네요
+아주 잘 사용하고 있써요 편하고 일할때 옮겨 사하기 정말 편하네요</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>배송이 엄청 빨라서 좋고,사은품도 땡큐.
+배송이 엄청 빨라서 좋고,사은품도 땡큐.</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>빠르고 안전한 배송에 감사합니다.
+빠르고 안전한 배송에 감사합니다.</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>넘 좋아용 시원시온 짱짱 ㅎㅎㅎ!
+넘 좋아용 시원시온 짱짱 ㅎㅎㅎ!</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>휴대성 좋고 무선이라 집에서도 야외에서도 이동이 간편해서 좋아요.집에서도 캠핑가서도 두고두고 잘 쓸 수 있을 것 같아요.
+휴대성 좋고 무선이라 집에서도 야외에서도 이동이 간편해서 좋아요.
+집에서도 캠핑가서도 두고두고 잘 쓸 수 있을 것 같아요.</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>캠핑용으로 샀어요무선으로도 이용가능하고충전하며 유선으로도 가능하다해서샀어요 좋아요 맘에 들어요^^
+캠핑용으로 샀어요
+무선으로도 이용가능하고
+충전하며 유선으로도 가능하다해서
+샀어요 좋아요 맘에 들어요^^</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>평점5</t>
         </is>

--- a/shop_xlsx/신제품보만 BF1126C.xlsx
+++ b/shop_xlsx/신제품보만 BF1126C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,19 +696,6 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약
-생각보다 더작고 바람세기도 쎄고 소음도 있네요(유선 사용시) 무선으로 쓸때 좀 조용해 지네요 자연풍이 아주약한 바람이 오래 나오고 2,3단정도 바람이 잠깐나오는데 이게 너무 약강약강만 반복되네요 조용하다 시끄러워지고 반복..1단도 꽤 쎈 바람이 나오는데 1단보다 약한 바람이 한단계 더있었으면 좋았을텐데.. 유선 1단이 너무 쎄고 소음이 좀있네요 바닥 생활을 해서 가슴 아래로 바람이 갈수있는 선풍기는 이런류의 선풍기가 유일한듯 싶네요 그래서 구입했습니다.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
           <t>더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에
 더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.
 집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요.
@@ -718,14 +705,14 @@
 다음주에 캠핑 갈 계획이라 보관 가방에 넣어 캠핑장에 가지고 가려구요.</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.주방아일랜드위에 올려놓으시고 잘 사
 저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.
@@ -734,14 +721,14 @@
 가벼워서 좋고 충전도편하고 어디든 들고다닐수있고 보관용이하고.. 세상좋은 보만이어요</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>잘 사용하고 있어요.생각했던 것보다 소음이 좀 있기는한데,바람세기도 8단계나 되고 이동하기도 편해서만족스러운 구매였던 것 같아요.아! 그리고 충전기 연결해서 사용하면 바람세기가같은
 잘 사용하고 있어요.
@@ -757,14 +744,14 @@
 아무튼 오래 잘 사용할께요~!</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람
 정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.
@@ -772,28 +759,28 @@
 더더 대박은 충전하는동안도 사용이 가능해서 집에서는 유선 선풍기로 캠핑가서는 무선으로 여름내내 잘 사용할것 같습니다.</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다아이들
 사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다
 아이들 방에 놓아도 좋을것 같아서 하나더 구입하고 싶어요</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>받자마자 넘 작아서 놀랬는데 혼자 자취하는 대학새내기 울딸한테 딱이더라고요 무선에 쓰임새 조절도 되고 무엇보다 좁은 원룸에 두세달 쓰고 선풍기보관이 번거로운데 보관이 넘 편해서
 받자마자 넘 작아서 놀랬는데 혼자 자취하는 대학새내기 울딸한테 딱이더라고요
@@ -801,6 +788,19 @@
 에어컨과 같이 쓰기 딱 좋은제품입니다</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>제가 개인적으로 보만 제품을 좋아하는데 이번 무선 선풍기 대박이네요! 접이식에다 휴대가방까지 있어서 놀러갈 때 들고가기도 좋고 신랑이 더위를 너무 심하게 많이 타서 ㅅ방마다 선풍기
+제가 개인적으로 보만 제품을 좋아하는데 이번 무선 선풍기 대박이네요! 접이식에다 휴대가방까지 있어서 놀러갈 때 들고가기도 좋고 신랑이 더위를 너무 심하게 많이 타서 ㅅ방마다 선풍기 하나씩 있는데 이동하면서 본인 개인 선풍기로 쓰기 너무 편하고 좋대요 ^^ 왠지 모르게 캠핑장 가져가면 지인들이 너도나도 다 사겠다고 할 거 같은 아이템입니다 ㅎㅎ</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>평점5</t>
@@ -810,8 +810,8 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>제가 개인적으로 보만 제품을 좋아하는데 이번 무선 선풍기 대박이네요! 접이식에다 휴대가방까지 있어서 놀러갈 때 들고가기도 좋고 신랑이 더위를 너무 심하게 많이 타서 ㅅ방마다 선풍기
-제가 개인적으로 보만 제품을 좋아하는데 이번 무선 선풍기 대박이네요! 접이식에다 휴대가방까지 있어서 놀러갈 때 들고가기도 좋고 신랑이 더위를 너무 심하게 많이 타서 ㅅ방마다 선풍기 하나씩 있는데 이동하면서 본인 개인 선풍기로 쓰기 너무 편하고 좋대요 ^^ 왠지 모르게 캠핑장 가져가면 지인들이 너도나도 다 사겠다고 할 거 같은 아이템입니다 ㅎㅎ</t>
+          <t>저도 상세페이지 처럼 걸어봤어요 ㅋㅋ 귀엽게 잘 걸려있고 전용 파우치가 진짜 대박이네요. 캠장 가서 쓸예정인데 너무 든든합니다! 리모컨도 주머니 쏙 넣을수 있고 좋아요. 근데 본체
+저도 상세페이지 처럼 걸어봤어요 ㅋㅋ 귀엽게 잘 걸려있고 전용 파우치가 진짜 대박이네요. 캠장 가서 쓸예정인데 너무 든든합니다! 리모컨도 주머니 쏙 넣을수 있고 좋아요. 근데 본체 버튼이 전원모양 두개 회전모양 두개로 붙어져 왔어요 ㅎㅎ 시간, 풍량 버튼이 없고 같은버튼으로만 되어있어서 디자인인줄 알았는데 아니더라고요?ㅋㅋ 근데 교환하느니 됐다 싶어서 걍 쓸라고요~ 디자인도 이쁘고 넘 만족스럽습니다^^ 시원해요~ 올 여름 잘 나겟슴다!</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -822,19 +822,6 @@
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
-        <is>
-          <t>저도 상세페이지 처럼 걸어봤어요 ㅋㅋ 귀엽게 잘 걸려있고 전용 파우치가 진짜 대박이네요. 캠장 가서 쓸예정인데 너무 든든합니다! 리모컨도 주머니 쏙 넣을수 있고 좋아요. 근데 본체
-저도 상세페이지 처럼 걸어봤어요 ㅋㅋ 귀엽게 잘 걸려있고 전용 파우치가 진짜 대박이네요. 캠장 가서 쓸예정인데 너무 든든합니다! 리모컨도 주머니 쏙 넣을수 있고 좋아요. 근데 본체 버튼이 전원모양 두개 회전모양 두개로 붙어져 왔어요 ㅎㅎ 시간, 풍량 버튼이 없고 같은버튼으로만 되어있어서 디자인인줄 알았는데 아니더라고요?ㅋㅋ 근데 교환하느니 됐다 싶어서 걍 쓸라고요~ 디자인도 이쁘고 넘 만족스럽습니다^^ 시원해요~ 올 여름 잘 나겟슴다!</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
         <is>
           <t>애기(여중학생)한테 뺏겼어요 ㅋㅋ예민해서 기존에 쓰던 선풍기 저 주고요걸로 바꿔갔어요리모컨도 있어서 책상밑 침대옆에두고다리쪽으로향하게 두고 쓰고있어요요모조모 기능좋은 제품이라 아주
 애기(여중학생)한테 뺏겼어요 ㅋㅋ
@@ -847,6 +834,19 @@
 기존꺼랑 비교하면 화악! 달라요</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>집에 도착하자마자 언박싱하고 부모님 퇴근 후 자랑했습니다 ㅋㅋ 디자인 너무 예쁘고 가볍고, 거기에 무선이라니 진짜 너무 좋아요. 평소에는 꽂아두고 사용하다가 전원선을 뽑아도 작동이
+집에 도착하자마자 언박싱하고 부모님 퇴근 후 자랑했습니다 ㅋㅋ 디자인 너무 예쁘고 가볍고, 거기에 무선이라니 진짜 너무 좋아요. 평소에는 꽂아두고 사용하다가 전원선을 뽑아도 작동이 되니까 누워서 바람 직빵으로 맞을 수 있다는 점이 최고였습니다. 접이식인 거 보여주고, 선을 딱 뽑았는데도 작동되는 걸 아버지 보여드리니 ㅇ0ㅇ이표정됨ㅋㅋㅋ BLDC 모터라 더 마음에 듭니다. 리모컨도 있어서 캠핑 다닐 때 쓰면 딱이겠어요. 추천합니다.</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>평점5</t>
@@ -855,19 +855,6 @@
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
-        <is>
-          <t>집에 도착하자마자 언박싱하고 부모님 퇴근 후 자랑했습니다 ㅋㅋ 디자인 너무 예쁘고 가볍고, 거기에 무선이라니 진짜 너무 좋아요. 평소에는 꽂아두고 사용하다가 전원선을 뽑아도 작동이
-집에 도착하자마자 언박싱하고 부모님 퇴근 후 자랑했습니다 ㅋㅋ 디자인 너무 예쁘고 가볍고, 거기에 무선이라니 진짜 너무 좋아요. 평소에는 꽂아두고 사용하다가 전원선을 뽑아도 작동이 되니까 누워서 바람 직빵으로 맞을 수 있다는 점이 최고였습니다. 접이식인 거 보여주고, 선을 딱 뽑았는데도 작동되는 걸 아버지 보여드리니 ㅇ0ㅇ이표정됨ㅋㅋㅋ BLDC 모터라 더 마음에 듭니다. 리모컨도 있어서 캠핑 다닐 때 쓰면 딱이겠어요. 추천합니다.</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
         <is>
           <t>배송은 아주 맘에들어요.꼼꼼하게 포장되서 좋았어요.개봉하면서 웃었네요 미니미해서ㅎㅎ 크기가 상세히 나와있지만 실물로보니 작네요.금액에 비해.바람은 제법강해서 괜찮아요. 근데 8단까
 배송은 아주 맘에들어요.꼼꼼하게 포장되서 좋았어요.개봉하면서 웃었네요 미니미해서ㅎㅎ 크기가 상세히 나와있지만 실물로보니 작네요.금액에 비해.
@@ -876,6 +863,19 @@
 손풍기도 기엽^^</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>선물용이었는데, 받는 사람이 매우 만족스럽다고 하더라구요. 높이 조절도 자유롭고, 접을 수도 있는데다, 무선 사용도 가능하고, 리모컨으로 조작도 가능하다고요. 정말 흠 잡을 곳이
+선물용이었는데, 받는 사람이 매우 만족스럽다고 하더라구요. 높이 조절도 자유롭고, 접을 수도 있는데다, 무선 사용도 가능하고, 리모컨으로 조작도 가능하다고요. 정말 흠 잡을 곳이 없는 제품이라며 극찬했어요. 덕분에 좋은 선물했습니다 ^^ 추천해요!!</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>평점5</t>
@@ -885,8 +885,8 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>선물용이었는데, 받는 사람이 매우 만족스럽다고 하더라구요. 높이 조절도 자유롭고, 접을 수도 있는데다, 무선 사용도 가능하고, 리모컨으로 조작도 가능하다고요. 정말 흠 잡을 곳이
-선물용이었는데, 받는 사람이 매우 만족스럽다고 하더라구요. 높이 조절도 자유롭고, 접을 수도 있는데다, 무선 사용도 가능하고, 리모컨으로 조작도 가능하다고요. 정말 흠 잡을 곳이 없는 제품이라며 극찬했어요. 덕분에 좋은 선물했습니다 ^^ 추천해요!!</t>
+          <t>일단 바람이 다른선풍기와는 차원이 다르게 시원해요 에어컨 튼거마냥 시원해요 그리고 키높이가 조절되니까 제일.낮게해서 아기옷장위에 올려서 틀어주고 해요 유선무선 다 가능하고 타이머기
+일단 바람이 다른선풍기와는 차원이 다르게 시원해요 에어컨 튼거마냥 시원해요 그리고 키높이가 조절되니까 제일.낮게해서 아기옷장위에 올려서 틀어주고 해요 유선무선 다 가능하고 타이머기능도 있어서 아기가 아주 시원하게 잘 자요 솔직구매후기.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -897,67 +897,67 @@
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
-        <is>
-          <t>일단 바람이 다른선풍기와는 차원이 다르게 시원해요 에어컨 튼거마냥 시원해요 그리고 키높이가 조절되니까 제일.낮게해서 아기옷장위에 올려서 틀어주고 해요 유선무선 다 가능하고 타이머기
-일단 바람이 다른선풍기와는 차원이 다르게 시원해요 에어컨 튼거마냥 시원해요 그리고 키높이가 조절되니까 제일.낮게해서 아기옷장위에 올려서 틀어주고 해요 유선무선 다 가능하고 타이머기능도 있어서 아기가 아주 시원하게 잘 자요 솔직구매후기.</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
         <is>
           <t>캠핑 때문에 구매 했는데, 일단 파우치가 포함이라 보관이나 트렁크에 넣기 편해서 좋습니다. 폴더블 방식이라 가방에 넣으면 코펠정도 밖에 안되네요. 그리고 무선이라 선으로부터 자유로
 캠핑 때문에 구매 했는데, 일단 파우치가 포함이라 보관이나 트렁크에 넣기 편해서 좋습니다. 폴더블 방식이라 가방에 넣으면 코펠정도 밖에 안되네요.
 그리고 무선이라 선으로부터 자유로운게 너무 좋고 전체적인 마감이나 퀄리티도 너무 좋습니다. 추천해요.</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>바람 단계가 많고 조용한편이고 무선이라 좋기는 한데 그래도 오래 틀어두려면 선연결해서 쓰는데 어댑터 선이 너무 짧은건 단점입니다.손풍기 같이 동봉해줘서 좋아요. 증정된 손풍기 너무
 바람 단계가 많고 조용한편이고 무선이라 좋기는 한데 그래도 오래 틀어두려면 선연결해서 쓰는데 어댑터 선이 너무 짧은건 단점입니다.
 손풍기 같이 동봉해줘서 좋아요. 증정된 손풍기 너무 작아서 바람이 불까싶었는데 강하게 틀면 나름 시원하네요</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>귀여워요~~ 특히 보관가방이??ㅋㅋ 사용하면서도 귀여운데 나중에 보관할 생각하면 기분 좋습니다. 다른 선풍기은 조립해체하고 커다란 박스에 넣어야해서 자리도 많이 차지하고&amp;helli
 귀여워요~~ 특히 보관가방이??ㅋㅋ 사용하면서도 귀여운데 나중에 보관할 생각하면 기분 좋습니다. 다른 선풍기은 조립해체하고 커다란 박스에 넣어야해서 자리도 많이 차지하고…
 바람도 좋고 리모컨이 정말정말 신의 한수네요^^</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>배송빠르게 잘받앗습니다. 사은품도 잘쓸게요.초미풍에 소음이 잇다는건 틀어보니 무슨말인지알겠고 예민하신 분들은 잘때 틀어놓긴 거슬릴것같은데 저는 서큘레이터로 쓰려고 사서 소음은 상관
 배송빠르게 잘받앗습니다. 사은품도 잘쓸게요.
 초미풍에 소음이 잇다는건 틀어보니 무슨말인지알겠고 예민하신 분들은 잘때 틀어놓긴 거슬릴것같은데 저는 서큘레이터로 쓰려고 사서 소음은 상관없을거같네요. 접이식이라 다양하게 쓸수잇어서 좋네요. 리모컨이 스티로폴박스 사이에 잇어서 하마터면 버릴뻔ㅋ 잘쓸게요</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>아담한 크기지만 생각보다 바람도 세고 무엇보다 무선이라 이동성이 좋아 여기저기 필요한 장소로 가지고 다니면서 쓸 수 있고 접었다 폈다 모양 조절, 각도 조절을 할 수 있어서 좋아요
+아담한 크기지만 생각보다 바람도 세고 무엇보다 무선이라 이동성이 좋아 여기저기 필요한 장소로 가지고 다니면서 쓸 수 있고 접었다 폈다 모양 조절, 각도 조절을 할 수 있어서 좋아요. 보관용 파우치가 있어 야외로 가지고 기도 편하고 겨울에 보관하기도 편하겠어요.</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>평점5</t>
@@ -966,19 +966,6 @@
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
-        <is>
-          <t>아담한 크기지만 생각보다 바람도 세고 무엇보다 무선이라 이동성이 좋아 여기저기 필요한 장소로 가지고 다니면서 쓸 수 있고 접었다 폈다 모양 조절, 각도 조절을 할 수 있어서 좋아요
-아담한 크기지만 생각보다 바람도 세고 무엇보다 무선이라 이동성이 좋아 여기저기 필요한 장소로 가지고 다니면서 쓸 수 있고 접었다 폈다 모양 조절, 각도 조절을 할 수 있어서 좋아요. 보관용 파우치가 있어 야외로 가지고 기도 편하고 겨울에 보관하기도 편하겠어요.</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
         <is>
           <t>우선 시원하고 수납성은 좋습니다.근데.. 1단계 및 자연풍이 너무 쎕니다.특히 1단계 및 자연풍때도 펜소음이 커서원래쓰던 브리즈킹 제품으로 옮겨 놓았어요무소음은 아닙니다. 생각보다
 우선 시원하고 수납성은 좋습니다.
@@ -989,6 +976,19 @@
 .</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>작고 가벼워서 이동하기 너무 편리합니다. 디자인도 깔끔해서 맘에들어요 그리고 생각보다 시원하고 회전각도도 많이 돌아가서 정말 잘산거같아요 여름 지나서 보관하기도 너무 컴팩트하고 최
+작고 가벼워서 이동하기 너무 편리합니다. 디자인도 깔끔해서 맘에들어요 그리고 생각보다 시원하고 회전각도도 많이 돌아가서 정말 잘산거같아요 여름 지나서 보관하기도 너무 컴팩트하고 최근들어서 한 쇼핑중에 제일 맘에들어요!</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>평점5</t>
@@ -997,19 +997,6 @@
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
-        <is>
-          <t>작고 가벼워서 이동하기 너무 편리합니다. 디자인도 깔끔해서 맘에들어요 그리고 생각보다 시원하고 회전각도도 많이 돌아가서 정말 잘산거같아요 여름 지나서 보관하기도 너무 컴팩트하고 최
-작고 가벼워서 이동하기 너무 편리합니다. 디자인도 깔끔해서 맘에들어요 그리고 생각보다 시원하고 회전각도도 많이 돌아가서 정말 잘산거같아요 여름 지나서 보관하기도 너무 컴팩트하고 최근들어서 한 쇼핑중에 제일 맘에들어요!</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
         <is>
           <t>날이 점점 더워서 휴대용 큰사이즈선풍기 찾다가 주문했는데 실제로받아보니 완전 큼직하구 바람도 강해서너무 좋아요!각도 조절,높이 조절도 내맘대로 되고 걸어 써도 되니까 편해요야외에
 날이 점점 더워서 휴대용 큰사이즈
@@ -1021,6 +1008,19 @@
 ~</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>생각보다 엄청 빠르게 와서 좋습니다! 작은 방에 놓고 에어컨이랑 함께 쓰려고 하는데 소리도 작고 바람 세기도 적당해서 좋네요 ㅎㅎ 특히 무선이라 바깥에 나갈 때도 쓸 수 있어서 더
+생각보다 엄청 빠르게 와서 좋습니다! 작은 방에 놓고 에어컨이랑 함께 쓰려고 하는데 소리도 작고 바람 세기도 적당해서 좋네요 ㅎㅎ 특히 무선이라 바깥에 나갈 때도 쓸 수 있어서 더욱 좋은 것 같습니다! :)</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>평점5</t>
@@ -1346,140 +1346,183 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>휴대도 가능하고 평상시에도 가능한만족스러운 선풍기네요 비싸다고 생각할 수 있으나 가격대비 좋은 제품입니다~
+휴대도 가능하고 평상시에도 가능한
+만족스러운 선풍기네요
+비싸다고 생각할 수 있으나 가격대비 좋은 제품입니다~</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>조용하고 시원하네요회전도 단계가 있으면 좋겠네요그리고 충전시 어뎁터에 열이 많이 발생해서 살짝 걱이 됩니다
 조용하고 시원하네요
 회전도 단계가 있으면 좋겠네요
 그리고 충전시 어뎁터에 열이 많이 발생해서 살짝 걱이 됩니다</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>주방까지 에어컨 바람이 닿지 않아 주방에 두고 사용하고 있어요 ~ 평소엔 집에서 사용하다가 야외로 놀러 나갈 땐 챙겨나가려고 미리 여름준비했네요~ 마음에 들어요!
 주방까지 에어컨 바람이 닿지 않아 주방에 두고 사용하고 있어요 ~ 평소엔 집에서 사용하다가 야외로 놀러 나갈 땐 챙겨나가려고 미리 여름준비했네요~ 마음에 들어요!</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>유무선이라 들고 다니기 간편하고 야외에서도 좋아요 가볍고 디자인도 마음에 듭니다
 유무선이라 들고 다니기 간편하고 야외에서도 좋아요 가볍고 디자인도 마음에 듭니다</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>매우 만족스럽습니다. 다만 소음은 일반선풍기 쓰시던 분은 무시할만한 수준, 기존에 BLDC쓰시던 분은 유선모드에서는 시끄럽게 느끼실 수도. 저는 추천합니다.
 매우 만족스럽습니다. 다만 소음은 일반선풍기 쓰시던 분은 무시할만한 수준, 기존에 BLDC쓰시던 분은 유선모드에서는 시끄럽게 느끼실 수도. 저는 추천합니다.</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>선풍기가 작은데도 바람세기도 좋고 휴대용으로 사용가능하다는것도 너무 편리하게 생각되네요.생각보다 바람소리도 덜하는것 같아서 좋아요
 선풍기가 작은데도 바람세기도 좋고 휴대용으로 사용가능하다는것도 너무 편리하게 생각되네요.
 생각보다 바람소리도 덜하는것 같아서 좋아요</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1단이 예상보다 바람이 세서 별하나 뺐어요아기용은 아닌듯 수납하기에 좋습니다
+1단이 예상보다 바람이 세서 별하나 뺐어요
+아기용은 아닌듯 수납하기에 좋습니다</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>상품 자체 매우만족하고쓰고있습니다 10만원이상 선풍기 살면서 처음써봤는데 굿!
 상품 자체 매우만족하고쓰고있습니다 10만원이상 선풍기 살면서 처음써봤는데 굿!</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>아이와 함께 자는 침실 선풍기를 알아보다가 준비했어요~자연의 바람과 함께 디테일 하나하나 고급스러워서 아주 대만족이에요!
 아이와 함께 자는 침실 선풍기를 알아보다가 준비했어요~
 자연의 바람과 함께 디테일 하나하나 고급스러워서 아주 대만족이에요!</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>완전 예쁘고 깔끔하고 시원하고 다해요더위를 많이 타서 손풍기용으로 들고다니려고 했는데 솔직히 그건 힘들겠어요 ㅋㅋ 캠핑갈때 잘 쓰이겠어요 추천해요
 완전 예쁘고 깔끔하고 시원하고 다해요
 더위를 많이 타서 손풍기용으로 들고다니려고 했는데 솔직히 그건 힘들겠어요 ㅋㅋ 캠핑갈때 잘 쓰이겠어요 추천해요</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>날개가 작아 바람이 시원하진 않아요, 소음도 크고요,가격도 좀 비싼 듯 합니다.
+날개가 작아 바람이 시원하진 않아요, 소음도 크고요,
+가격도 좀 비싼 듯 합니다.</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>바람세기는 강한편인데 크기가 많이 작네요..아기 선풍기 글자를 못보고;;;;;;;;;
 바람세기는 강한편인데 크기가 많이 작네요..아기 선풍기 글자를 못보고;;;;;;;;;</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>사이즈 체크를 안해서 처음에 작아서 놀라긴 했지만 깔끔하고 맘에 들어요~
 사이즈 체크를 안해서 처음에 작아서 놀라긴 했지만 깔끔하고 맘에 들어요~</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>가볍고 사용법도 간단하네요기존에 있던 서큘레이터에 비하면소음도 작아요
 가볍고 사용법도 간단하네요
@@ -1487,68 +1530,95 @@
 소음도 작아요</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>사이즈는 아담해도 바람은 그렇게 안시끄러윤데 세서 좋아요. 잘쓰겠급니다!
+사이즈는 아담해도 바람은 그렇게 안시끄러윤데 세서 좋아요. 잘쓰겠급니다!</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>가볍고 아담해서 집안에서도 집밖에서도 사용하기 좋아요캠핑용으로 쓸 때도 높이 조절이 돼서 다른 캠핑 선풍기보다 활용도가 높을 것 같아서 하나 있으면 두루두루 잘 쓸 것 같아요
 가볍고 아담해서 집안에서도 집밖에서도 사용하기 좋아요
 캠핑용으로 쓸 때도 높이 조절이 돼서 다른 캠핑 선풍기보다 활용도가 높을 것 같아서 하나 있으면 두루두루 잘 쓸 것 같아요</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>쓰던거보고 친구가 탐내서 하나더샀어요설거지할때 요긴하게 씁니다ㅎ
+쓰던거보고 친구가 탐내서 하나더샀어요
+설거지할때 요긴하게 씁니다ㅎ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>무소음 무선 이라고해서 샀는데 소음이 있네요. 흠. 원래 이정도 소음은 있는건가요? 너무 기대했는지 별로 맘에 그냥 그래요.
 무소음 무선 이라고해서 샀는데 소음이 있네요. 흠. 원래 이정도 소음은 있는건가요? 너무 기대했는지 별로 맘에 그냥 그래요.</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>가볍고 이동성 좋아요다만 리모컨 거치대가 없어 약 간 불편해요
 가볍고 이동성 좋아요
 다만 리모컨 거치대가 없어 약 간 불편해요</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>소음도 적고, 접이식이라 보관하기 편하고, 디자인도 작고 이쁨 강추
 소음도 적고, 접이식이라 보관하기 편하고, 디자인도 작고 이쁨 강추</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>여러제품 비교하다가 구매했습니다.높낮이조절,배터리양 표시,리모컨조절,무선제가 생각했던 모든 기능이 다 있습니다.작고 귀엽네요!
 여러제품 비교하다가 구매했습니다.
@@ -1557,817 +1627,1084 @@
 작고 귀엽네요!</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>고르고 골라 모든 기능의 집결체팬이 생각보다 작지만 만족합니다!!
 고르고 골라 모든 기능의 집결체
 팬이 생각보다 작지만 만족합니다!!</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>작지만 성능 좋구요 소음 만족,일단 부피가 작고 보관하기 좋아요
 작지만 성능 좋구요 소음 만족,일단 부피가 작고 보관하기 좋아요</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>디자인 좋고 리모컨이 본체에 자석으로 붙어서 너무 편리하네요^^
 디자인 좋고 리모컨이 본체에 자석으로 붙어서 너무 편리하네요^^</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>무선이라 정말 편하네요ㅡ더군다나 보관방법이 획기적입니다^^
 무선이라 정말 편하네요ㅡ
 더군다나 보관방법이 획기적입니다^^</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>실제 받아보고 나니 일반 선풍기 보다 사이즈는 작습니다. 다만 너무 이뻐요. 정말 이뻐요. 아! 그리고 선풍기 회전할때 날개부분이 돌아가는게 아닌 몸통 전체가 회전해요 ㅋㅋㅋ
 실제 받아보고 나니 일반 선풍기 보다 사이즈는 작습니다. 다만 너무 이뻐요. 정말 이뻐요. 아! 그리고 선풍기 회전할때 날개부분이 돌아가는게 아닌 몸통 전체가 회전해요 ㅋㅋㅋ</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>무선이라 편하게 들고 필요한곳에서 쓸 수 있어서 너무 좋아요 무선 선풍기 처음인데 신세계네요
 무선이라 편하게 들고 필요한곳에서 쓸 수 있어서 너무 좋아요 무선 선풍기 처음인데 신세계네요</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>선풍기 조금 작긴한데 조용해서 좋네요 휴대가능하고 이뻐요
 선풍기 조금 작긴한데 조용해서 좋네요 휴대가능하고 이뻐요</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>작고 무선이고 너무 디자인도 좋네요캠핑갈때도 딱이겠어요!!
 작고 무선이고 너무 디자인도 좋네요
 캠핑갈때도 딱이겠어요!!</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>일단 휴대도 간편하고 바람도 세서 좋아요. 아주 만족합니다
 일단 휴대도 간편하고 바람도 세서 좋아요. 아주 만족합니다</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>이쁘고 가볍고 무선되고 조용하고 모든 게 다 좋은거같아요!
 이쁘고 가볍고 무선되고 조용하고 모든 게 다 좋은거같아요!</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>생각보다 작은데 시원하고 간편하고~회전으로 해놔도 시원해요ㅎㅎ고민끝에 주문했는데 100프로 만족합니다
 생각보다 작은데 시원하고 간편하고~
 회전으로 해놔도 시원해요ㅎㅎ고민끝에 주문했는데 100프로 만족합니다</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>가정용으로는 조금 작지만 아이 방에 놓긴 괜찮아요바람도 쌔고 좋네요 사은품도 너무 조아요
 가정용으로는 조금 작지만 아이 방에 놓긴 괜찮아요
 바람도 쌔고 좋네요 사은품도 너무 조아요</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>접히는것 편리하고 무선이라 좋고 바람세기도 적당합니다!
 접히는것 편리하고 무선이라 좋고 바람세기도 적당합니다!</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>아주 편리하게 사용합니다.그런데 약간 소음이 크긴해요.
 아주 편리하게 사용합니다.
 그런데 약간 소음이 크긴해요.</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>슬림하지만 시원해요
 팬의 크기가 작아 시원하지 않을까 걱정했는데 8단계까지라 풍량 조절도 잘되고 시원하네요. 무선형에 리모컨까지 강추합니다.</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>보관하기에도 아주 간편하고 컴팩트한 사이즈만 바람은 왠만한 사이즈의 선풍기와 견주어봐도 밀리지 않아요~!
 보관하기에도 아주 간편하고 컴팩트한 사이즈만 바람은 왠만한 사이즈의 선풍기와 견주어봐도 밀리지 않아요~!</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>귀엽고 앙증맞고, 휴대성이 좋아 휴가갈때 같이 갑니다~
 귀엽고 앙증맞고, 휴대성이 좋아 휴가갈때 같이 갑니다~</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>가벼워서 좋고 , 접어서 보관할때도 좋겠고맘에 들어요
+가벼워서 좋고 , 접어서 보관할때도 좋겠고
+맘에 들어요</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>침대에서 사용하기에 낮게 높이 조절 되는게 좋습니다.
 침대에서 사용하기에 낮게 높이 조절 되는게 좋습니다.</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>빠른배송 잘 받았습니다. 제품도 이상없이 작동하네요!
 빠른배송 잘 받았습니다. 제품도 이상없이 작동하네요!</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>접이식이라 편리하고 무선이라 좋아요~ 원룸에서 사용하려고 구매했는데 작고 귀엽네요~
 접이식이라 편리하고 무선이라 좋아요~ 원룸에서 사용하려고 구매했는데 작고 귀엽네요~</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>캠핑가서 너무 잘쓰고 집에서도 매일 쓰는 중이에요!
 캠핑가서 너무 잘쓰고
 집에서도 매일 쓰는 중이에요!</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>무선이라 휴대성도 좋고 풍량도 8단으로 시원하네요.
 무선이라 휴대성도 좋고 풍량도 8단으로 시원하네요.</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>주방용으로 구입
 음식할때 더워서 무선.접이식으로 구매 시원합니다</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>가볍고 좋네요 아이가 들고다니면서
 가볍고 좋네요 아이가 들고다니면서 쓰고 있어요</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>작지만 결코 성능과 쓰임새는 작지않습니다 충전식 으로 이동이 간편해서 아주 유용하게 여름을 날듯합니다
+작지만 결코 성능과 쓰임새는 작지않습니다 충전식 으로 이동이 간편해서 아주 유용하게 여름을 날듯합니다</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>휴대가 편해서 차박할때 많이 사용하고 있어요.
 휴대가 편해서 차박할때 많이 사용하고 있어요.</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>배송이 빨라요충전기 연결하면 바람이 세져요.
+배송이 빨라요
+충전기 연결하면 바람이 세져요.</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>생각보다 충전이 오래가서 좋고 편리합니다!!
 생각보다 충전이 오래가서 좋고 편리합니다!!</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>저소음은 절대 아닙니다. 매우 시끄러워요.
 저소음은 절대 아닙니다. 매우 시끄러워요.</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>좋습니다. 튼튼하고 성능좋고 너무 편해요
 좋습니다. 튼튼하고 성능좋고 너무 편해요</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>포장부터 상품성까지 모두 마음에 들어요
 포장부터 상품성까지 모두 마음에 들어요</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>전선이 없고 이동이 자유로워 너무좋네요
 전선이 없고 이동이 자유로워 너무좋네요</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>배송빠르고 디자인 이쁘네요 시원합니다
+배송빠르고 디자인 이쁘네요 시원합니다</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>가볍고 무선으로 쓸 수 있어서 좋습니다
 가볍고 무선으로 쓸 수 있어서 좋습니다</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>가볍고 보관도 용이하고 마음에 듭니다.
 가볍고 보관도 용이하고 마음에 듭니다.</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>가볍고 시원하고 생각보다 바람이 세서 놀랐어요!취침때문에 1단이 생각보다 세서 고민했는데무선일때 제가 원한 바람세기로 약해져서 고민이 없어졌어요^^!잘 쓸게요~
+가볍고 시원하고 생각보다 바람이 세서 놀랐어요!
+취침때문에 1단이 생각보다 세서 고민했는데
+무선일때 제가 원한 바람세기로 약해져서 고민이 없어졌어요^^!
+잘 쓸게요~</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>가볍고 바람세기도 딱 적당하고 좋아요
 가볍고 바람세기도 딱 적당하고 좋아요</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>사용하기 편리합니다 무선이라 좋아요
+사용하기 편리합니다 무선이라 좋아요</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>휴대하기 편리하고 성능도 좋습니다~!
 휴대하기 편리하고 성능도 좋습니다~!</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>바람도세고수납이 간편해서 엄지척^^
 바람도세고수납이 간편해서 엄지척^^</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>잘돌아가네요 접히는것도 좋습니다
 잘돌아가네요 접히는것도 좋습니다</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>배송도 빠르고 저렴하게 잘삿어요
 배송도 빠르고 저렴하게 잘삿어요</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>배송도빠르고 상품도 만족합니다
 배송도빠르고 상품도 만족합니다</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>배터리만가득있는데 꺼져요 ㅠㅠ
 배터리만가득있는데 꺼져요 ㅠㅠ</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>생각보다 귀여워요 고장 안나길..
 생각보다 귀여워요 고장 안나길..</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>가격 대비 성능이 너무 좋아요
 가격 대비 성능이 너무 좋아요</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>휴대용이 진짜 좋은거 같아요
+휴대용이 진짜 좋은거 같아요</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>작지만 강하고 소음 진짜적음
 작지만 강하고 소음 진짜적음</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>쓸수록 잘샀다고 생각합니다
 쓸수록 잘샀다고 생각합니다</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>휴대하기 편하고 시원합니다
 휴대하기 편하고 시원합니다</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>12시 배송마감은 너무 빨라요
+12시 배송마감은 너무 빨라요</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>쉽게 옮길 수 있어서 좋아요
+쉽게 옮길 수 있어서 좋아요</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>선이 좀 짧긴 하지만 좋아요
 선이 좀 짧긴 하지만 좋아요</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>이동편리한게 제일 좋아요~
+이동편리한게 제일 좋아요~</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>간편하게 이동하기 좋아요
 간편하게 이동하기 좋아요</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>r만족하는데 너무 작아요!
+r만족하는데 너무 작아요!</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>만족하는편 나쁘지 않음
 만족하는편 나쁘지 않음</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>작고 시원하고 이뻐요!!
 작고 시원하고 이뻐요!!</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>상품 퀼리티 좋습니다^^
 상품 퀼리티 좋습니다^^</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>배송빠르고 상품좋아요
+배송빠르고 상품좋아요</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>휴대성좋고 조용합니다
 휴대성좋고 조용합니다</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>배송 빠르고 좋아요~~~~
+배송 빠르고 좋아요~~~~</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>다음에 또 구매할게요
 다음에 또 구매할게요</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>매번쓰는제품이에요!!
+매번쓰는제품이에요!!</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>불량왔는데 연락이안됨 !!글달아도답글도 없고 이거 뭐 어쩌자는건지 한달이넘었는데도 연락이없다 ㅠㅠ
 불량왔는데 연락이안됨 !!글달아도답글도 없고 이거 뭐 어쩌자는건지 한달이넘었는데도 연락이없다 ㅠㅠ</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>평점2</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>잘쓰겠습니다 좋아이
 잘쓰겠습니다 좋아이</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>작고 안방에서 사용하기 좋은데 소음이 작지는 않아밤이나 새벽에 작동 시 소음이 걸리네요...
 작고 안방에서 사용하기 좋은데 소음이 작지는 않아
 밤이나 새벽에 작동 시 소음이 걸리네요...</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>편하고 괜찮네요.
+편하고 괜찮네요.</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>예쁘고 가벼워요~~
+예쁘고 가벼워요~~</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>가격이 좀 나간다 생각했는데 그만큼 좋네요. 소음은 신경쓸만큼은 아니고 디쟌, 스펙 다 좋네요. 잘 쓸게요
+가격이 좀 나간다 생각했는데 그만큼 좋네요. 소음은 신경쓸만큼은 아니고 디쟌, 스펙 다 좋네요. 잘 쓸게요</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>사이즈가 작은 편이고 작고 귀엽습니다보관도 용이하고 너무 간편해서 좋습니다
 사이즈가 작은 편이고 작고 귀엽습니다
 보관도 용이하고 너무 간편해서 좋습니다</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>배송도빠르고 제품도 너무좋네요. 귀여운 미니 휴대용 선풍기도 감사합니다^^
 배송도빠르고 제품도 너무좋네요. 귀여운 미니 휴대용 선풍기도 감사합니다^^</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>아주 잘 사용하고 있써요 편하고 일할때 옮겨 사하기 정말 편하네요
 아주 잘 사용하고 있써요 편하고 일할때 옮겨 사하기 정말 편하네요</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>배송이 엄청 빨라서 좋고,사은품도 땡큐.
 배송이 엄청 빨라서 좋고,사은품도 땡큐.</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>귀엽고 성능 좋네요 가성비 최고네요 :)
+귀엽고 성능 좋네요
+가성비 최고네요 :)</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>빠르고 안전한 배송에 감사합니다.
 빠르고 안전한 배송에 감사합니다.</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>빠른배송 감사합니다
+빠른배송 감사합니다</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>빠르게 잘 받았습니다.작동 잘 되네요 잘쓰겠습니다.
+빠르게 잘 받았습니다.
+작동 잘 되네요 잘쓰겠습니다.</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>넘 좋아용 시원시온 짱짱 ㅎㅎㅎ!
 넘 좋아용 시원시온 짱짱 ㅎㅎㅎ!</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>휴대성 좋고 무선이라 집에서도 야외에서도 이동이 간편해서 좋아요.집에서도 캠핑가서도 두고두고 잘 쓸 수 있을 것 같아요.
 휴대성 좋고 무선이라 집에서도 야외에서도 이동이 간편해서 좋아요.
 집에서도 캠핑가서도 두고두고 잘 쓸 수 있을 것 같아요.</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>평점5</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>평점5</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>캠핑용으로 샀어요무선으로도 이용가능하고충전하며 유선으로도 가능하다해서샀어요 좋아요 맘에 들어요^^
 캠핑용으로 샀어요
@@ -2376,7 +2713,7 @@
 샀어요 좋아요 맘에 들어요^^</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>평점5</t>
         </is>
